--- a/Divisions/I2.xlsx
+++ b/Divisions/I2.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9066" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9170" uniqueCount="314">
   <si>
     <t>Team</t>
   </si>
@@ -707,6 +708,258 @@
   </si>
   <si>
     <t>2.6571</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Ascoli,D L W W W W</t>
+  </si>
+  <si>
+    <t>Brescia,L W D D L W</t>
+  </si>
+  <si>
+    <t>Chievo,D D W L D L</t>
+  </si>
+  <si>
+    <t>Cittadella,L L D D W W</t>
+  </si>
+  <si>
+    <t>Cosenza,D W L L L W</t>
+  </si>
+  <si>
+    <t>Cremonese,D W W D L D</t>
+  </si>
+  <si>
+    <t>Empoli,W W D W D L</t>
+  </si>
+  <si>
+    <t>Frosinone,L D L D L W</t>
+  </si>
+  <si>
+    <t>Lecce,W W W L W L</t>
+  </si>
+  <si>
+    <t>Monza,L D D L W W</t>
+  </si>
+  <si>
+    <t>Pescara,L W D D D L</t>
+  </si>
+  <si>
+    <t>Pisa,L L L W D L</t>
+  </si>
+  <si>
+    <t>Pordenone,L W L W D L</t>
+  </si>
+  <si>
+    <t>Reggiana,D D D L L W</t>
+  </si>
+  <si>
+    <t>Reggina,D W D W W D</t>
+  </si>
+  <si>
+    <t>Salernitana,W L W W W L</t>
+  </si>
+  <si>
+    <t>Spal,W D D W L L</t>
+  </si>
+  <si>
+    <t>Venezia,W L D W L W</t>
+  </si>
+  <si>
+    <t>Vicenza,W W L L L W</t>
+  </si>
+  <si>
+    <t>Virtus Entella,L D L L D L</t>
+  </si>
+  <si>
+    <t>Ascoli,0 1 2 1 2 2</t>
+  </si>
+  <si>
+    <t>Brescia,0 4 2 1 2 3</t>
+  </si>
+  <si>
+    <t>Chievo,1 1 2 0 2 1</t>
+  </si>
+  <si>
+    <t>Cittadella,0 0 1 1 1 3</t>
+  </si>
+  <si>
+    <t>Cosenza,1 2 0 0 0 3</t>
+  </si>
+  <si>
+    <t>Cremonese,0 1 2 2 1 1</t>
+  </si>
+  <si>
+    <t>Empoli,1 1 2 4 2 0</t>
+  </si>
+  <si>
+    <t>Frosinone,0 0 0 1 0 3</t>
+  </si>
+  <si>
+    <t>Lecce,3 2 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Monza,1 1 1 0 2 3</t>
+  </si>
+  <si>
+    <t>Pescara,0 3 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Pisa,1 0 0 3 2 1</t>
+  </si>
+  <si>
+    <t>Pordenone,1 3 1 2 2 0</t>
+  </si>
+  <si>
+    <t>Reggiana,1 0 2 0 1 1</t>
+  </si>
+  <si>
+    <t>Reggina,1 2 1 3 2 1</t>
+  </si>
+  <si>
+    <t>Salernitana,1 0 1 3 2 1</t>
+  </si>
+  <si>
+    <t>Spal,1 1 1 2 1 1</t>
+  </si>
+  <si>
+    <t>Venezia,4 0 1 3 1 3</t>
+  </si>
+  <si>
+    <t>Vicenza,1 1 1 0 1 2</t>
+  </si>
+  <si>
+    <t>Virtus Entella,0 1 0 0 1 1</t>
+  </si>
+  <si>
+    <t>Ascoli,0 2 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Brescia,1 1 2 1 4 1</t>
+  </si>
+  <si>
+    <t>Chievo,1 1 0 1 2 3</t>
+  </si>
+  <si>
+    <t>Cittadella,1 1 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Cosenza,1 1 1 3 3 0</t>
+  </si>
+  <si>
+    <t>Cremonese,0 0 1 2 2 1</t>
+  </si>
+  <si>
+    <t>Empoli,0 0 2 2 2 2</t>
+  </si>
+  <si>
+    <t>Frosinone,3 0 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Lecce,0 0 0 2 1 3</t>
+  </si>
+  <si>
+    <t>Monza,4 1 1 1 1 1</t>
+  </si>
+  <si>
+    <t>Pescara,1 1 1 1 1 3</t>
+  </si>
+  <si>
+    <t>Pisa,3 1 2 0 2 3</t>
+  </si>
+  <si>
+    <t>Pordenone,4 0 2 0 2 1</t>
+  </si>
+  <si>
+    <t>Reggiana,1 0 2 1 2 0</t>
+  </si>
+  <si>
+    <t>Reggina,1 0 1 0 1 1</t>
+  </si>
+  <si>
+    <t>Salernitana,0 2 0 0 1 3</t>
+  </si>
+  <si>
+    <t>Spal,0 1 1 1 2 3</t>
+  </si>
+  <si>
+    <t>Venezia,1 2 1 0 2 1</t>
+  </si>
+  <si>
+    <t>Vicenza,0 0 2 3 2 1</t>
+  </si>
+  <si>
+    <t>Virtus Entella,1 1 3 3 1 2</t>
+  </si>
+  <si>
+    <t>Ascoli,0 3 3 1 3 2</t>
+  </si>
+  <si>
+    <t>Brescia,1 5 4 2 6 4</t>
+  </si>
+  <si>
+    <t>Chievo,2 2 2 1 4 4</t>
+  </si>
+  <si>
+    <t>Cittadella,1 1 2 2 1 4</t>
+  </si>
+  <si>
+    <t>Cosenza,2 3 1 3 3 3</t>
+  </si>
+  <si>
+    <t>Cremonese,0 1 3 4 3 2</t>
+  </si>
+  <si>
+    <t>Empoli,1 1 4 6 4 2</t>
+  </si>
+  <si>
+    <t>Frosinone,3 0 1 2 2 4</t>
+  </si>
+  <si>
+    <t>Lecce,3 2 1 3 3 4</t>
+  </si>
+  <si>
+    <t>Monza,5 2 2 1 3 4</t>
+  </si>
+  <si>
+    <t>Pescara,1 4 2 2 2 3</t>
+  </si>
+  <si>
+    <t>Pisa,4 1 2 3 4 4</t>
+  </si>
+  <si>
+    <t>Pordenone,5 3 3 2 4 1</t>
+  </si>
+  <si>
+    <t>Reggiana,2 0 4 1 3 1</t>
+  </si>
+  <si>
+    <t>Reggina,2 2 2 3 3 2</t>
+  </si>
+  <si>
+    <t>Salernitana,1 2 1 3 3 4</t>
+  </si>
+  <si>
+    <t>Spal,1 2 2 3 3 4</t>
+  </si>
+  <si>
+    <t>Venezia,5 2 2 3 3 4</t>
+  </si>
+  <si>
+    <t>Vicenza,1 1 3 3 3 3</t>
+  </si>
+  <si>
+    <t>Virtus Entella,1 2 3 3 2 3</t>
   </si>
 </sst>
 </file>
@@ -28281,4 +28534,372 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" t="s">
+        <v>283</v>
+      </c>
+      <c r="E11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>248</v>
+      </c>
+      <c r="C16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E18" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/I2.xlsx
+++ b/Divisions/I2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9514" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9598" uniqueCount="447">
   <si>
     <t>Team</t>
   </si>
@@ -135,27 +135,27 @@
     <t>Spal</t>
   </si>
   <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
     <t>Reggina</t>
   </si>
   <si>
     <t>Cremonese</t>
   </si>
   <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
     <t>Pisa</t>
   </si>
   <si>
     <t>Vicenza</t>
   </si>
   <si>
+    <t>Pordenone</t>
+  </si>
+  <si>
     <t>Ascoli</t>
   </si>
   <si>
-    <t>Pordenone</t>
-  </si>
-  <si>
     <t>Cosenza</t>
   </si>
   <si>
@@ -168,559 +168,577 @@
     <t>Virtus Entella</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>66</t>
+    <t>-4</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>-5</t>
+  </si>
+  <si>
+    <t>-11</t>
+  </si>
+  <si>
+    <t>-18</t>
+  </si>
+  <si>
+    <t>-26</t>
+  </si>
+  <si>
+    <t>-31</t>
+  </si>
+  <si>
+    <t>-34</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>X2020.09.25</t>
+  </si>
+  <si>
+    <t>X2020.09.26</t>
+  </si>
+  <si>
+    <t>X2020.09.27</t>
+  </si>
+  <si>
+    <t>X2020.10.03</t>
+  </si>
+  <si>
+    <t>X2020.10.04</t>
+  </si>
+  <si>
+    <t>X2020.10.16</t>
+  </si>
+  <si>
+    <t>X2020.10.17</t>
+  </si>
+  <si>
+    <t>X2020.10.20</t>
+  </si>
+  <si>
+    <t>X2020.10.21</t>
+  </si>
+  <si>
+    <t>X2020.10.23</t>
+  </si>
+  <si>
+    <t>X2020.10.24</t>
+  </si>
+  <si>
+    <t>X2020.10.25</t>
+  </si>
+  <si>
+    <t>X2020.10.31</t>
+  </si>
+  <si>
+    <t>X2020.11.01</t>
+  </si>
+  <si>
+    <t>X2020.11.02</t>
+  </si>
+  <si>
+    <t>X2020.11.06</t>
+  </si>
+  <si>
+    <t>X2020.11.07</t>
+  </si>
+  <si>
+    <t>X2020.11.08</t>
+  </si>
+  <si>
+    <t>X2020.11.14</t>
+  </si>
+  <si>
+    <t>X2020.11.20</t>
+  </si>
+  <si>
+    <t>X2020.11.21</t>
+  </si>
+  <si>
+    <t>X2020.11.22</t>
+  </si>
+  <si>
+    <t>X2020.11.23</t>
+  </si>
+  <si>
+    <t>X2020.11.27</t>
+  </si>
+  <si>
+    <t>X2020.11.28</t>
+  </si>
+  <si>
+    <t>X2020.11.29</t>
+  </si>
+  <si>
+    <t>X2020.11.30</t>
+  </si>
+  <si>
+    <t>X2020.12.02</t>
+  </si>
+  <si>
+    <t>X2020.12.04</t>
+  </si>
+  <si>
+    <t>X2020.12.05</t>
+  </si>
+  <si>
+    <t>X2020.12.06</t>
+  </si>
+  <si>
+    <t>X2020.12.07</t>
+  </si>
+  <si>
+    <t>X2020.12.08</t>
+  </si>
+  <si>
+    <t>X2020.12.11</t>
+  </si>
+  <si>
+    <t>X2020.12.12</t>
+  </si>
+  <si>
+    <t>X2020.12.14</t>
+  </si>
+  <si>
+    <t>X2020.12.15</t>
+  </si>
+  <si>
+    <t>X2020.12.18</t>
+  </si>
+  <si>
+    <t>X2020.12.19</t>
+  </si>
+  <si>
+    <t>X2020.12.21</t>
+  </si>
+  <si>
+    <t>X2020.12.22</t>
+  </si>
+  <si>
+    <t>X2020.12.27</t>
+  </si>
+  <si>
+    <t>X2020.12.30</t>
+  </si>
+  <si>
+    <t>X2021.01.04</t>
+  </si>
+  <si>
+    <t>X2021.01.09</t>
+  </si>
+  <si>
+    <t>X2021.01.15</t>
+  </si>
+  <si>
+    <t>X2021.01.16</t>
+  </si>
+  <si>
+    <t>X2021.01.17</t>
+  </si>
+  <si>
+    <t>X2021.01.18</t>
+  </si>
+  <si>
+    <t>X2021.01.19</t>
+  </si>
+  <si>
+    <t>X2021.01.22</t>
+  </si>
+  <si>
+    <t>X2021.01.23</t>
+  </si>
+  <si>
+    <t>X2021.01.24</t>
+  </si>
+  <si>
+    <t>X2021.01.25</t>
+  </si>
+  <si>
+    <t>X2021.01.27</t>
+  </si>
+  <si>
+    <t>X2021.01.29</t>
+  </si>
+  <si>
+    <t>X2021.01.30</t>
+  </si>
+  <si>
+    <t>X2021.01.31</t>
+  </si>
+  <si>
+    <t>X2021.02.01</t>
+  </si>
+  <si>
+    <t>X2021.02.02</t>
+  </si>
+  <si>
+    <t>X2021.02.05</t>
+  </si>
+  <si>
+    <t>X2021.02.06</t>
+  </si>
+  <si>
+    <t>X2021.02.07</t>
+  </si>
+  <si>
+    <t>X2021.02.09</t>
+  </si>
+  <si>
+    <t>X2021.02.10</t>
+  </si>
+  <si>
+    <t>X2021.02.12</t>
+  </si>
+  <si>
+    <t>X2021.02.13</t>
+  </si>
+  <si>
+    <t>X2021.02.14</t>
+  </si>
+  <si>
+    <t>X2021.02.15</t>
+  </si>
+  <si>
+    <t>X2021.02.19</t>
+  </si>
+  <si>
+    <t>X2021.02.20</t>
+  </si>
+  <si>
+    <t>X2021.02.21</t>
+  </si>
+  <si>
+    <t>X2021.02.26</t>
+  </si>
+  <si>
+    <t>X2021.02.27</t>
+  </si>
+  <si>
+    <t>X2021.03.01</t>
+  </si>
+  <si>
+    <t>X2021.03.02</t>
+  </si>
+  <si>
+    <t>X2021.03.06</t>
+  </si>
+  <si>
+    <t>X2021.03.07</t>
+  </si>
+  <si>
+    <t>X2021.03.08</t>
+  </si>
+  <si>
+    <t>X2021.03.12</t>
+  </si>
+  <si>
+    <t>X2021.03.13</t>
+  </si>
+  <si>
+    <t>X2021.03.15</t>
+  </si>
+  <si>
+    <t>X2021.03.16</t>
+  </si>
+  <si>
+    <t>X2021.03.19</t>
+  </si>
+  <si>
+    <t>X2021.03.20</t>
+  </si>
+  <si>
+    <t>X2021.03.21</t>
+  </si>
+  <si>
+    <t>X2021.04.02</t>
+  </si>
+  <si>
+    <t>X2021.04.05</t>
+  </si>
+  <si>
+    <t>X2021.04.09</t>
+  </si>
+  <si>
+    <t>X2021.04.10</t>
+  </si>
+  <si>
+    <t>X2021.04.11</t>
+  </si>
+  <si>
+    <t>X2021.04.12</t>
+  </si>
+  <si>
+    <t>X2021.04.13</t>
+  </si>
+  <si>
+    <t>X2021.04.16</t>
+  </si>
+  <si>
+    <t>X2021.04.17</t>
+  </si>
+  <si>
+    <t>X2021.04.24</t>
+  </si>
+  <si>
+    <t>X2021.04.27</t>
+  </si>
+  <si>
+    <t>X2021.05.01</t>
+  </si>
+  <si>
+    <t>X2021.05.04</t>
+  </si>
+  <si>
+    <t>X2021.05.07</t>
+  </si>
+  <si>
+    <t>X2021.05.10</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Virtus.Entella</t>
+  </si>
+  <si>
+    <t>i2_hgtotals</t>
+  </si>
+  <si>
+    <t>i2_agtotals</t>
+  </si>
+  <si>
+    <t>i2_totalgoals</t>
+  </si>
+  <si>
+    <t>i2_games_played</t>
+  </si>
+  <si>
+    <t>i2_avg_totalgoals</t>
+  </si>
+  <si>
+    <t>63</t>
   </si>
   <si>
     <t>43</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>67</t>
+    <t>49</t>
   </si>
   <si>
     <t>52</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>-6</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>-16</t>
-  </si>
-  <si>
-    <t>-25</t>
-  </si>
-  <si>
-    <t>-28</t>
-  </si>
-  <si>
-    <t>-33</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>X2020.09.25</t>
-  </si>
-  <si>
-    <t>X2020.09.26</t>
-  </si>
-  <si>
-    <t>X2020.09.27</t>
-  </si>
-  <si>
-    <t>X2020.10.03</t>
-  </si>
-  <si>
-    <t>X2020.10.04</t>
-  </si>
-  <si>
-    <t>X2020.10.16</t>
-  </si>
-  <si>
-    <t>X2020.10.17</t>
-  </si>
-  <si>
-    <t>X2020.10.20</t>
-  </si>
-  <si>
-    <t>X2020.10.21</t>
-  </si>
-  <si>
-    <t>X2020.10.23</t>
-  </si>
-  <si>
-    <t>X2020.10.24</t>
-  </si>
-  <si>
-    <t>X2020.10.25</t>
-  </si>
-  <si>
-    <t>X2020.10.31</t>
-  </si>
-  <si>
-    <t>X2020.11.01</t>
-  </si>
-  <si>
-    <t>X2020.11.02</t>
-  </si>
-  <si>
-    <t>X2020.11.06</t>
-  </si>
-  <si>
-    <t>X2020.11.07</t>
-  </si>
-  <si>
-    <t>X2020.11.08</t>
-  </si>
-  <si>
-    <t>X2020.11.14</t>
-  </si>
-  <si>
-    <t>X2020.11.20</t>
-  </si>
-  <si>
-    <t>X2020.11.21</t>
-  </si>
-  <si>
-    <t>X2020.11.22</t>
-  </si>
-  <si>
-    <t>X2020.11.23</t>
-  </si>
-  <si>
-    <t>X2020.11.27</t>
-  </si>
-  <si>
-    <t>X2020.11.28</t>
-  </si>
-  <si>
-    <t>X2020.11.29</t>
-  </si>
-  <si>
-    <t>X2020.11.30</t>
-  </si>
-  <si>
-    <t>X2020.12.02</t>
-  </si>
-  <si>
-    <t>X2020.12.04</t>
-  </si>
-  <si>
-    <t>X2020.12.05</t>
-  </si>
-  <si>
-    <t>X2020.12.06</t>
-  </si>
-  <si>
-    <t>X2020.12.07</t>
-  </si>
-  <si>
-    <t>X2020.12.08</t>
-  </si>
-  <si>
-    <t>X2020.12.11</t>
-  </si>
-  <si>
-    <t>X2020.12.12</t>
-  </si>
-  <si>
-    <t>X2020.12.14</t>
-  </si>
-  <si>
-    <t>X2020.12.15</t>
-  </si>
-  <si>
-    <t>X2020.12.18</t>
-  </si>
-  <si>
-    <t>X2020.12.19</t>
-  </si>
-  <si>
-    <t>X2020.12.21</t>
-  </si>
-  <si>
-    <t>X2020.12.22</t>
-  </si>
-  <si>
-    <t>X2020.12.27</t>
-  </si>
-  <si>
-    <t>X2020.12.30</t>
-  </si>
-  <si>
-    <t>X2021.01.04</t>
-  </si>
-  <si>
-    <t>X2021.01.09</t>
-  </si>
-  <si>
-    <t>X2021.01.15</t>
-  </si>
-  <si>
-    <t>X2021.01.16</t>
-  </si>
-  <si>
-    <t>X2021.01.17</t>
-  </si>
-  <si>
-    <t>X2021.01.18</t>
-  </si>
-  <si>
-    <t>X2021.01.19</t>
-  </si>
-  <si>
-    <t>X2021.01.22</t>
-  </si>
-  <si>
-    <t>X2021.01.23</t>
-  </si>
-  <si>
-    <t>X2021.01.24</t>
-  </si>
-  <si>
-    <t>X2021.01.25</t>
-  </si>
-  <si>
-    <t>X2021.01.27</t>
-  </si>
-  <si>
-    <t>X2021.01.29</t>
-  </si>
-  <si>
-    <t>X2021.01.30</t>
-  </si>
-  <si>
-    <t>X2021.01.31</t>
-  </si>
-  <si>
-    <t>X2021.02.01</t>
-  </si>
-  <si>
-    <t>X2021.02.02</t>
-  </si>
-  <si>
-    <t>X2021.02.05</t>
-  </si>
-  <si>
-    <t>X2021.02.06</t>
-  </si>
-  <si>
-    <t>X2021.02.07</t>
-  </si>
-  <si>
-    <t>X2021.02.09</t>
-  </si>
-  <si>
-    <t>X2021.02.10</t>
-  </si>
-  <si>
-    <t>X2021.02.12</t>
-  </si>
-  <si>
-    <t>X2021.02.13</t>
-  </si>
-  <si>
-    <t>X2021.02.14</t>
-  </si>
-  <si>
-    <t>X2021.02.15</t>
-  </si>
-  <si>
-    <t>X2021.02.19</t>
-  </si>
-  <si>
-    <t>X2021.02.20</t>
-  </si>
-  <si>
-    <t>X2021.02.21</t>
-  </si>
-  <si>
-    <t>X2021.02.26</t>
-  </si>
-  <si>
-    <t>X2021.02.27</t>
-  </si>
-  <si>
-    <t>X2021.03.01</t>
-  </si>
-  <si>
-    <t>X2021.03.02</t>
-  </si>
-  <si>
-    <t>X2021.03.06</t>
-  </si>
-  <si>
-    <t>X2021.03.07</t>
-  </si>
-  <si>
-    <t>X2021.03.08</t>
-  </si>
-  <si>
-    <t>X2021.03.12</t>
-  </si>
-  <si>
-    <t>X2021.03.13</t>
-  </si>
-  <si>
-    <t>X2021.03.15</t>
-  </si>
-  <si>
-    <t>X2021.03.16</t>
-  </si>
-  <si>
-    <t>X2021.03.19</t>
-  </si>
-  <si>
-    <t>X2021.03.20</t>
-  </si>
-  <si>
-    <t>X2021.03.21</t>
-  </si>
-  <si>
-    <t>X2021.04.02</t>
-  </si>
-  <si>
-    <t>X2021.04.05</t>
-  </si>
-  <si>
-    <t>X2021.04.09</t>
-  </si>
-  <si>
-    <t>X2021.04.10</t>
-  </si>
-  <si>
-    <t>X2021.04.11</t>
-  </si>
-  <si>
-    <t>X2021.04.12</t>
-  </si>
-  <si>
-    <t>X2021.04.13</t>
-  </si>
-  <si>
-    <t>X2021.04.16</t>
-  </si>
-  <si>
-    <t>X2021.04.17</t>
-  </si>
-  <si>
-    <t>X2021.04.24</t>
-  </si>
-  <si>
-    <t>X2021.04.27</t>
-  </si>
-  <si>
-    <t>X2021.05.01</t>
-  </si>
-  <si>
-    <t>X2021.05.04</t>
-  </si>
-  <si>
-    <t>X2021.05.07</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Virtus.Entella</t>
-  </si>
-  <si>
-    <t>i2_hgtotals</t>
-  </si>
-  <si>
-    <t>i2_agtotals</t>
-  </si>
-  <si>
-    <t>i2_totalgoals</t>
-  </si>
-  <si>
-    <t>i2_games_played</t>
-  </si>
-  <si>
-    <t>i2_avg_totalgoals</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>112</t>
+    <t>85</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>115</t>
   </si>
   <si>
     <t>84</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>89</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>76</t>
+    <t>113</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>88</t>
   </si>
   <si>
     <t>86</t>
   </si>
   <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>2.2162</t>
-  </si>
-  <si>
-    <t>3.027</t>
-  </si>
-  <si>
-    <t>2.2703</t>
-  </si>
-  <si>
-    <t>2.1892</t>
-  </si>
-  <si>
-    <t>2.4054</t>
-  </si>
-  <si>
-    <t>2.7027</t>
-  </si>
-  <si>
-    <t>2.0541</t>
-  </si>
-  <si>
-    <t>2.3243</t>
-  </si>
-  <si>
-    <t>2.9189</t>
-  </si>
-  <si>
-    <t>2.0811</t>
-  </si>
-  <si>
-    <t>2.2973</t>
-  </si>
-  <si>
-    <t>2.2432</t>
-  </si>
-  <si>
-    <t>2.4324</t>
-  </si>
-  <si>
-    <t>2.6486</t>
+    <t>92</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>2.2368</t>
+  </si>
+  <si>
+    <t>2.2895</t>
+  </si>
+  <si>
+    <t>2.1842</t>
+  </si>
+  <si>
+    <t>2.3684</t>
+  </si>
+  <si>
+    <t>2.7105</t>
+  </si>
+  <si>
+    <t>2.1053</t>
+  </si>
+  <si>
+    <t>3.0263</t>
+  </si>
+  <si>
+    <t>2.2105</t>
+  </si>
+  <si>
+    <t>2.3421</t>
+  </si>
+  <si>
+    <t>2.9737</t>
+  </si>
+  <si>
+    <t>2.0789</t>
+  </si>
+  <si>
+    <t>2.3158</t>
+  </si>
+  <si>
+    <t>2.2632</t>
+  </si>
+  <si>
+    <t>2.4211</t>
+  </si>
+  <si>
+    <t>2.6579</t>
+  </si>
+  <si>
+    <t>2.4737</t>
   </si>
   <si>
     <t>Group.1</t>
@@ -798,10 +816,10 @@
     <t>39.13%</t>
   </si>
   <si>
-    <t>38.81%</t>
-  </si>
-  <si>
-    <t>26.97%</t>
+    <t>39.19%</t>
+  </si>
+  <si>
+    <t>26.88%</t>
   </si>
   <si>
     <t>20.27%</t>
@@ -810,7 +828,7 @@
     <t>27.27%</t>
   </si>
   <si>
-    <t>35.29%</t>
+    <t>35.51%</t>
   </si>
   <si>
     <t>20.25%</t>
@@ -819,10 +837,13 @@
     <t>36.36%</t>
   </si>
   <si>
-    <t>29.35%</t>
-  </si>
-  <si>
-    <t>28.75%</t>
+    <t>27.84%</t>
+  </si>
+  <si>
+    <t>26.09%</t>
+  </si>
+  <si>
+    <t>30.23%</t>
   </si>
   <si>
     <t>33.33%</t>
@@ -831,22 +852,25 @@
     <t>30.16%</t>
   </si>
   <si>
-    <t>25.97%</t>
+    <t>25.32%</t>
+  </si>
+  <si>
+    <t>35.71%</t>
   </si>
   <si>
     <t>26.17%</t>
   </si>
   <si>
-    <t>25.64%</t>
+    <t>26.83%</t>
   </si>
   <si>
     <t>25.00%</t>
   </si>
   <si>
-    <t>19.39%</t>
-  </si>
-  <si>
-    <t>41.07%</t>
+    <t>19.00%</t>
+  </si>
+  <si>
+    <t>41.67%</t>
   </si>
   <si>
     <t>26.92%</t>
@@ -855,19 +879,19 @@
     <t>26.14%</t>
   </si>
   <si>
-    <t>22.95%</t>
-  </si>
-  <si>
-    <t>22.09%</t>
+    <t>22.58%</t>
+  </si>
+  <si>
+    <t>21.11%</t>
   </si>
   <si>
     <t>27.78%</t>
   </si>
   <si>
-    <t>31.03%</t>
-  </si>
-  <si>
-    <t>32.29%</t>
+    <t>32.84%</t>
+  </si>
+  <si>
+    <t>32.65%</t>
   </si>
   <si>
     <t>30.38%</t>
@@ -885,82 +909,82 @@
     <t>28.57%</t>
   </si>
   <si>
-    <t>28.81%</t>
+    <t>31.75%</t>
   </si>
   <si>
     <t>29.69%</t>
   </si>
   <si>
-    <t>27.91%</t>
+    <t>26.60%</t>
   </si>
   <si>
     <t>33.77%</t>
   </si>
   <si>
-    <t>22.92%</t>
-  </si>
-  <si>
-    <t>22.29%</t>
-  </si>
-  <si>
-    <t>39.86%</t>
-  </si>
-  <si>
-    <t>32.41%</t>
-  </si>
-  <si>
-    <t>26.55%</t>
+    <t>25.49%</t>
+  </si>
+  <si>
+    <t>22.02%</t>
+  </si>
+  <si>
+    <t>40.13%</t>
+  </si>
+  <si>
+    <t>32.89%</t>
+  </si>
+  <si>
+    <t>26.52%</t>
+  </si>
+  <si>
+    <t>21.32%</t>
+  </si>
+  <si>
+    <t>24.34%</t>
+  </si>
+  <si>
+    <t>31.63%</t>
+  </si>
+  <si>
+    <t>26.03%</t>
+  </si>
+  <si>
+    <t>34.52%</t>
+  </si>
+  <si>
+    <t>28.98%</t>
   </si>
   <si>
     <t>21.48%</t>
   </si>
   <si>
-    <t>24.86%</t>
-  </si>
-  <si>
-    <t>31.43%</t>
-  </si>
-  <si>
-    <t>24.82%</t>
-  </si>
-  <si>
-    <t>34.36%</t>
-  </si>
-  <si>
-    <t>29.82%</t>
-  </si>
-  <si>
-    <t>21.64%</t>
-  </si>
-  <si>
-    <t>27.94%</t>
-  </si>
-  <si>
-    <t>33.08%</t>
-  </si>
-  <si>
-    <t>26.94%</t>
-  </si>
-  <si>
-    <t>29.68%</t>
+    <t>33.96%</t>
+  </si>
+  <si>
+    <t>28.17%</t>
+  </si>
+  <si>
+    <t>26.37%</t>
+  </si>
+  <si>
+    <t>30.19%</t>
+  </si>
+  <si>
+    <t>25.21%</t>
+  </si>
+  <si>
+    <t>30.68%</t>
   </si>
   <si>
     <t>24.14%</t>
   </si>
   <si>
-    <t>19.00%</t>
-  </si>
-  <si>
-    <t>30.68%</t>
-  </si>
-  <si>
-    <t>20.97%</t>
+    <t>20.00%</t>
   </si>
   <si>
     <t>17.24%</t>
   </si>
   <si>
-    <t>23.73%</t>
+    <t>24.59%</t>
   </si>
   <si>
     <t>26.25%</t>
@@ -969,58 +993,55 @@
     <t>35.90%</t>
   </si>
   <si>
-    <t>29.79%</t>
-  </si>
-  <si>
-    <t>39.39%</t>
-  </si>
-  <si>
-    <t>26.98%</t>
-  </si>
-  <si>
-    <t>24.68%</t>
+    <t>31.37%</t>
+  </si>
+  <si>
+    <t>41.43%</t>
+  </si>
+  <si>
+    <t>28.79%</t>
+  </si>
+  <si>
+    <t>24.36%</t>
+  </si>
+  <si>
+    <t>31.88%</t>
+  </si>
+  <si>
+    <t>31.15%</t>
+  </si>
+  <si>
+    <t>35.82%</t>
+  </si>
+  <si>
+    <t>37.23%</t>
+  </si>
+  <si>
+    <t>31.52%</t>
+  </si>
+  <si>
+    <t>24.30%</t>
+  </si>
+  <si>
+    <t>34.33%</t>
+  </si>
+  <si>
+    <t>28.38%</t>
+  </si>
+  <si>
+    <t>25.71%</t>
+  </si>
+  <si>
+    <t>32.35%</t>
+  </si>
+  <si>
+    <t>29.85%</t>
   </si>
   <si>
     <t>30.00%</t>
   </si>
   <si>
-    <t>25.68%</t>
-  </si>
-  <si>
-    <t>31.15%</t>
-  </si>
-  <si>
-    <t>35.94%</t>
-  </si>
-  <si>
-    <t>37.23%</t>
-  </si>
-  <si>
-    <t>30.59%</t>
-  </si>
-  <si>
-    <t>25.49%</t>
-  </si>
-  <si>
-    <t>34.33%</t>
-  </si>
-  <si>
-    <t>28.38%</t>
-  </si>
-  <si>
-    <t>25.25%</t>
-  </si>
-  <si>
-    <t>32.81%</t>
-  </si>
-  <si>
-    <t>29.85%</t>
-  </si>
-  <si>
-    <t>30.88%</t>
-  </si>
-  <si>
-    <t>26.15%</t>
+    <t>27.14%</t>
   </si>
   <si>
     <t>24.29%</t>
@@ -1032,61 +1053,61 @@
     <t>41.24%</t>
   </si>
   <si>
-    <t>28.17%</t>
-  </si>
-  <si>
     <t>26.74%</t>
   </si>
   <si>
-    <t>23.33%</t>
+    <t>23.08%</t>
   </si>
   <si>
     <t>23.00%</t>
   </si>
   <si>
+    <t>29.41%</t>
+  </si>
+  <si>
     <t>36.71%</t>
   </si>
   <si>
-    <t>28.26%</t>
-  </si>
-  <si>
-    <t>24.32%</t>
-  </si>
-  <si>
-    <t>27.89%</t>
-  </si>
-  <si>
-    <t>30.08%</t>
-  </si>
-  <si>
-    <t>20.93%</t>
-  </si>
-  <si>
-    <t>30.50%</t>
-  </si>
-  <si>
-    <t>31.47%</t>
-  </si>
-  <si>
-    <t>26.50%</t>
-  </si>
-  <si>
-    <t>38.51%</t>
-  </si>
-  <si>
-    <t>35.62%</t>
-  </si>
-  <si>
-    <t>26.35%</t>
-  </si>
-  <si>
-    <t>28.08%</t>
-  </si>
-  <si>
-    <t>30.40%</t>
-  </si>
-  <si>
-    <t>32.80%</t>
+    <t>29.59%</t>
+  </si>
+  <si>
+    <t>27.18%</t>
+  </si>
+  <si>
+    <t>29.60%</t>
+  </si>
+  <si>
+    <t>24.31%</t>
+  </si>
+  <si>
+    <t>21.27%</t>
+  </si>
+  <si>
+    <t>30.34%</t>
+  </si>
+  <si>
+    <t>27.34%</t>
+  </si>
+  <si>
+    <t>28.00%</t>
+  </si>
+  <si>
+    <t>31.76%</t>
+  </si>
+  <si>
+    <t>39.47%</t>
+  </si>
+  <si>
+    <t>36.20%</t>
+  </si>
+  <si>
+    <t>29.03%</t>
+  </si>
+  <si>
+    <t>23.60%</t>
+  </si>
+  <si>
+    <t>36.30%</t>
   </si>
   <si>
     <t>Form</t>
@@ -1101,244 +1122,244 @@
     <t>Total Goals</t>
   </si>
   <si>
-    <t>Ascoli,W W W W D W</t>
-  </si>
-  <si>
-    <t>Brescia,D D L W W W</t>
-  </si>
-  <si>
-    <t>Chievo,W L D L D W</t>
-  </si>
-  <si>
-    <t>Cittadella,D D W W W L</t>
-  </si>
-  <si>
-    <t>Cosenza,L L L W L L</t>
-  </si>
-  <si>
-    <t>Cremonese,W D L D D W</t>
-  </si>
-  <si>
-    <t>Empoli,D W D L W L</t>
-  </si>
-  <si>
-    <t>Frosinone,L D L W W D</t>
-  </si>
-  <si>
-    <t>Lecce,W L W L L D</t>
-  </si>
-  <si>
-    <t>Monza,D L W W W W</t>
-  </si>
-  <si>
-    <t>Pescara,D D D L W L</t>
-  </si>
-  <si>
-    <t>Pisa,L W D L D L</t>
-  </si>
-  <si>
-    <t>Pordenone,L W D L L D</t>
-  </si>
-  <si>
-    <t>Reggiana,D L L W L L</t>
-  </si>
-  <si>
-    <t>Reggina,D W W D D D</t>
-  </si>
-  <si>
-    <t>Salernitana,W W W L W W</t>
-  </si>
-  <si>
-    <t>Spal,D W L L L W</t>
-  </si>
-  <si>
-    <t>Venezia,D W L W D D</t>
-  </si>
-  <si>
-    <t>Vicenza,L L L W L D</t>
-  </si>
-  <si>
-    <t>Virtus Entella,L L D L L L</t>
-  </si>
-  <si>
-    <t>Ascoli,2 1 2 2 2 2</t>
-  </si>
-  <si>
-    <t>Brescia,2 1 2 3 3 4</t>
-  </si>
-  <si>
-    <t>Chievo,2 0 2 1 1 3</t>
-  </si>
-  <si>
-    <t>Cittadella,1 1 1 3 1 0</t>
-  </si>
-  <si>
-    <t>Cosenza,0 0 0 3 0 0</t>
-  </si>
-  <si>
-    <t>Cremonese,2 2 1 1 1 3</t>
-  </si>
-  <si>
-    <t>Empoli,2 4 2 0 4 0</t>
-  </si>
-  <si>
-    <t>Frosinone,0 1 0 3 1 1</t>
-  </si>
-  <si>
-    <t>Lecce,1 1 2 1 0 2</t>
-  </si>
-  <si>
-    <t>Monza,1 0 2 3 1 3</t>
-  </si>
-  <si>
-    <t>Pescara,1 1 1 0 1 0</t>
-  </si>
-  <si>
-    <t>Pisa,0 3 2 1 2 3</t>
-  </si>
-  <si>
-    <t>Pordenone,1 2 2 0 1 0</t>
-  </si>
-  <si>
-    <t>Reggiana,2 0 1 1 0 1</t>
-  </si>
-  <si>
-    <t>Reggina,1 3 2 1 2 2</t>
-  </si>
-  <si>
-    <t>Salernitana,1 3 2 1 2 2</t>
-  </si>
-  <si>
-    <t>Spal,1 2 1 1 0 2</t>
-  </si>
-  <si>
-    <t>Venezia,1 3 1 3 2 0</t>
-  </si>
-  <si>
-    <t>Vicenza,1 0 1 2 0 1</t>
-  </si>
-  <si>
-    <t>Virtus Entella,0 0 1 1 0 1</t>
-  </si>
-  <si>
-    <t>Ascoli,1 0 1 0 2 0</t>
-  </si>
-  <si>
-    <t>Brescia,2 1 4 1 0 3</t>
-  </si>
-  <si>
-    <t>Chievo,0 1 2 3 1 1</t>
-  </si>
-  <si>
-    <t>Cittadella,1 1 0 1 0 2</t>
-  </si>
-  <si>
-    <t>Cosenza,1 3 3 0 4 3</t>
-  </si>
-  <si>
-    <t>Cremonese,1 2 2 1 1 0</t>
-  </si>
-  <si>
-    <t>Empoli,2 2 2 2 0 2</t>
-  </si>
-  <si>
-    <t>Frosinone,1 1 2 1 0 1</t>
-  </si>
-  <si>
-    <t>Lecce,0 2 1 3 1 2</t>
-  </si>
-  <si>
-    <t>Monza,1 1 1 1 0 0</t>
-  </si>
-  <si>
-    <t>Pescara,1 1 1 3 0 3</t>
-  </si>
-  <si>
-    <t>Pisa,2 0 2 3 2 4</t>
-  </si>
-  <si>
-    <t>Pordenone,2 0 2 1 2 0</t>
-  </si>
-  <si>
-    <t>Reggiana,2 1 2 0 1 2</t>
-  </si>
-  <si>
-    <t>Reggina,1 0 1 1 2 2</t>
-  </si>
-  <si>
-    <t>Salernitana,0 0 1 3 1 0</t>
-  </si>
-  <si>
-    <t>Spal,1 1 2 3 1 1</t>
-  </si>
-  <si>
-    <t>Venezia,1 0 2 1 2 0</t>
-  </si>
-  <si>
-    <t>Vicenza,2 3 2 1 3 1</t>
-  </si>
-  <si>
-    <t>Virtus Entella,3 3 1 2 1 3</t>
-  </si>
-  <si>
-    <t>Ascoli,3 1 3 2 4 2</t>
-  </si>
-  <si>
-    <t>Brescia,4 2 6 4 3 7</t>
-  </si>
-  <si>
-    <t>Chievo,2 1 4 4 2 4</t>
-  </si>
-  <si>
-    <t>Cittadella,2 2 1 4 1 2</t>
-  </si>
-  <si>
-    <t>Cosenza,1 3 3 3 4 3</t>
-  </si>
-  <si>
-    <t>Cremonese,3 4 3 2 2 3</t>
-  </si>
-  <si>
-    <t>Empoli,4 6 4 2 4 2</t>
-  </si>
-  <si>
-    <t>Frosinone,1 2 2 4 1 2</t>
-  </si>
-  <si>
-    <t>Lecce,1 3 3 4 1 4</t>
-  </si>
-  <si>
-    <t>Monza,2 1 3 4 1 3</t>
-  </si>
-  <si>
-    <t>Pescara,2 2 2 3 1 3</t>
-  </si>
-  <si>
-    <t>Pisa,2 3 4 4 4 7</t>
-  </si>
-  <si>
-    <t>Pordenone,3 2 4 1 3 0</t>
-  </si>
-  <si>
-    <t>Reggiana,4 1 3 1 1 3</t>
-  </si>
-  <si>
-    <t>Reggina,2 3 3 2 4 4</t>
-  </si>
-  <si>
-    <t>Salernitana,1 3 3 4 3 2</t>
-  </si>
-  <si>
-    <t>Spal,2 3 3 4 1 3</t>
-  </si>
-  <si>
-    <t>Venezia,2 3 3 4 4 0</t>
-  </si>
-  <si>
-    <t>Vicenza,3 3 3 3 3 2</t>
-  </si>
-  <si>
-    <t>Virtus Entella,3 3 2 3 1 4</t>
+    <t>Ascoli,W W W D W L</t>
+  </si>
+  <si>
+    <t>Brescia,D L W W W W</t>
+  </si>
+  <si>
+    <t>Chievo,L D L D W W</t>
+  </si>
+  <si>
+    <t>Cittadella,D W W W L D</t>
+  </si>
+  <si>
+    <t>Cosenza,L L W L L L</t>
+  </si>
+  <si>
+    <t>Cremonese,D L D D W L</t>
+  </si>
+  <si>
+    <t>Empoli,W D L W L W</t>
+  </si>
+  <si>
+    <t>Frosinone,D L W W D W</t>
+  </si>
+  <si>
+    <t>Lecce,L W L L D L</t>
+  </si>
+  <si>
+    <t>Monza,L W W W W L</t>
+  </si>
+  <si>
+    <t>Pescara,D D L W L L</t>
+  </si>
+  <si>
+    <t>Pisa,W D L D L W</t>
+  </si>
+  <si>
+    <t>Pordenone,W D L L D W</t>
+  </si>
+  <si>
+    <t>Reggiana,L L W L L L</t>
+  </si>
+  <si>
+    <t>Reggina,W W D D D L</t>
+  </si>
+  <si>
+    <t>Salernitana,W W L W W W</t>
+  </si>
+  <si>
+    <t>Spal,W L L L W W</t>
+  </si>
+  <si>
+    <t>Venezia,W L W D D D</t>
+  </si>
+  <si>
+    <t>Vicenza,L L W L D W</t>
+  </si>
+  <si>
+    <t>Virtus Entella,L D L L L L</t>
+  </si>
+  <si>
+    <t>Ascoli,1 2 2 2 2 0</t>
+  </si>
+  <si>
+    <t>Brescia,1 2 3 3 4 2</t>
+  </si>
+  <si>
+    <t>Chievo,0 2 1 1 3 3</t>
+  </si>
+  <si>
+    <t>Cittadella,1 1 3 1 0 1</t>
+  </si>
+  <si>
+    <t>Cosenza,0 0 3 0 0 0</t>
+  </si>
+  <si>
+    <t>Cremonese,2 1 1 1 3 0</t>
+  </si>
+  <si>
+    <t>Empoli,4 2 0 4 0 2</t>
+  </si>
+  <si>
+    <t>Frosinone,1 0 3 1 1 4</t>
+  </si>
+  <si>
+    <t>Lecce,1 2 1 0 2 1</t>
+  </si>
+  <si>
+    <t>Monza,0 2 3 1 3 0</t>
+  </si>
+  <si>
+    <t>Pescara,1 1 0 1 0 0</t>
+  </si>
+  <si>
+    <t>Pisa,3 2 1 2 3 3</t>
+  </si>
+  <si>
+    <t>Pordenone,2 2 0 1 0 2</t>
+  </si>
+  <si>
+    <t>Reggiana,0 1 1 0 1 1</t>
+  </si>
+  <si>
+    <t>Reggina,3 2 1 2 2 0</t>
+  </si>
+  <si>
+    <t>Salernitana,3 2 1 2 2 3</t>
+  </si>
+  <si>
+    <t>Spal,2 1 1 0 2 1</t>
+  </si>
+  <si>
+    <t>Venezia,3 1 3 2 0 1</t>
+  </si>
+  <si>
+    <t>Vicenza,0 1 2 0 1 2</t>
+  </si>
+  <si>
+    <t>Virtus Entella,0 1 1 0 1 2</t>
+  </si>
+  <si>
+    <t>Ascoli,0 1 0 2 0 3</t>
+  </si>
+  <si>
+    <t>Brescia,1 4 1 0 3 0</t>
+  </si>
+  <si>
+    <t>Chievo,1 2 3 1 1 0</t>
+  </si>
+  <si>
+    <t>Cittadella,1 0 1 0 2 1</t>
+  </si>
+  <si>
+    <t>Cosenza,3 3 0 4 3 2</t>
+  </si>
+  <si>
+    <t>Cremonese,2 2 1 1 0 1</t>
+  </si>
+  <si>
+    <t>Empoli,2 2 2 0 2 1</t>
+  </si>
+  <si>
+    <t>Frosinone,1 2 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Lecce,2 1 3 1 2 2</t>
+  </si>
+  <si>
+    <t>Monza,1 1 1 0 0 2</t>
+  </si>
+  <si>
+    <t>Pescara,1 1 3 0 3 3</t>
+  </si>
+  <si>
+    <t>Pisa,0 2 3 2 4 2</t>
+  </si>
+  <si>
+    <t>Pordenone,0 2 1 2 0 0</t>
+  </si>
+  <si>
+    <t>Reggiana,1 2 0 1 2 2</t>
+  </si>
+  <si>
+    <t>Reggina,0 1 1 2 2 4</t>
+  </si>
+  <si>
+    <t>Salernitana,0 1 3 1 0 0</t>
+  </si>
+  <si>
+    <t>Spal,1 2 3 1 1 0</t>
+  </si>
+  <si>
+    <t>Venezia,0 2 1 2 0 1</t>
+  </si>
+  <si>
+    <t>Vicenza,3 2 1 3 1 1</t>
+  </si>
+  <si>
+    <t>Virtus Entella,3 1 2 1 3 3</t>
+  </si>
+  <si>
+    <t>Ascoli,1 3 2 4 2 3</t>
+  </si>
+  <si>
+    <t>Brescia,2 6 4 3 7 2</t>
+  </si>
+  <si>
+    <t>Chievo,1 4 4 2 4 3</t>
+  </si>
+  <si>
+    <t>Cittadella,2 1 4 1 2 2</t>
+  </si>
+  <si>
+    <t>Cosenza,3 3 3 4 3 2</t>
+  </si>
+  <si>
+    <t>Cremonese,4 3 2 2 3 1</t>
+  </si>
+  <si>
+    <t>Empoli,6 4 2 4 2 3</t>
+  </si>
+  <si>
+    <t>Frosinone,2 2 4 1 2 4</t>
+  </si>
+  <si>
+    <t>Lecce,3 3 4 1 4 3</t>
+  </si>
+  <si>
+    <t>Monza,1 3 4 1 3 2</t>
+  </si>
+  <si>
+    <t>Pescara,2 2 3 1 3 3</t>
+  </si>
+  <si>
+    <t>Pisa,3 4 4 4 7 5</t>
+  </si>
+  <si>
+    <t>Pordenone,2 4 1 3 0 2</t>
+  </si>
+  <si>
+    <t>Reggiana,1 3 1 1 3 3</t>
+  </si>
+  <si>
+    <t>Reggina,3 3 2 4 4 4</t>
+  </si>
+  <si>
+    <t>Salernitana,3 3 4 3 2 3</t>
+  </si>
+  <si>
+    <t>Spal,3 3 4 1 3 1</t>
+  </si>
+  <si>
+    <t>Venezia,3 3 4 4 0 2</t>
+  </si>
+  <si>
+    <t>Vicenza,3 3 3 3 2 3</t>
+  </si>
+  <si>
+    <t>Virtus Entella,3 2 3 1 4 5</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1451,7 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -1442,13 +1463,13 @@
         <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -1462,7 +1483,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1474,13 +1495,13 @@
         <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
@@ -1500,19 +1521,19 @@
         <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -1532,19 +1553,19 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -1561,22 +1582,22 @@
         <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -1593,22 +1614,22 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
@@ -1622,7 +1643,7 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
         <v>19</v>
@@ -1631,16 +1652,16 @@
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -1654,7 +1675,7 @@
         <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
@@ -1663,16 +1684,16 @@
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -1686,7 +1707,7 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
@@ -1695,16 +1716,16 @@
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -1724,19 +1745,19 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
@@ -1753,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13">
@@ -1782,25 +1803,25 @@
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
         <v>59</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -1814,7 +1835,7 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -1823,16 +1844,16 @@
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -1846,7 +1867,7 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
@@ -1855,16 +1876,16 @@
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
         <v>56</v>
-      </c>
-      <c r="I15" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16">
@@ -1878,25 +1899,25 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -1910,22 +1931,22 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J17" t="s">
         <v>59</v>
@@ -1948,19 +1969,19 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" t="s">
         <v>67</v>
-      </c>
-      <c r="I18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19">
@@ -1983,16 +2004,16 @@
         <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -2012,19 +2033,19 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -2047,16 +2068,16 @@
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2075,309 +2096,312 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>102</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>103</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>104</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>105</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>107</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>108</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>109</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>110</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>111</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>112</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>113</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>118</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>119</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>121</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>122</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>123</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>127</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>129</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>130</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>131</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>132</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>133</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>134</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>135</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>136</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>137</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>138</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>139</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>141</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>142</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>144</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>145</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>146</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>147</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>148</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>149</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>150</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>151</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>152</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>153</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>154</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>155</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>156</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>157</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>158</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>159</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>160</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>161</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>162</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>163</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>164</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>165</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>166</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>167</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>168</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>169</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>170</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>171</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>172</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>173</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>174</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>175</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>176</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>177</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>178</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>179</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>180</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>181</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>182</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>183</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>184</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>185</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>186</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>187</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>188</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>189</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>190</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
@@ -2678,6 +2702,9 @@
       </c>
       <c r="CW2" t="s">
         <v>2</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2984,6 +3011,9 @@
       <c r="CW3" t="s">
         <v>2</v>
       </c>
+      <c r="CX3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -3289,6 +3319,9 @@
       <c r="CW4" t="s">
         <v>2</v>
       </c>
+      <c r="CX4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -3594,6 +3627,9 @@
       <c r="CW5" t="s">
         <v>4</v>
       </c>
+      <c r="CX5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -3899,10 +3935,13 @@
       <c r="CW6" t="s">
         <v>4</v>
       </c>
+      <c r="CX6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>192</v>
@@ -4203,6 +4242,9 @@
       </c>
       <c r="CW7" t="s">
         <v>2</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -4509,10 +4551,13 @@
       <c r="CW8" t="s">
         <v>4</v>
       </c>
+      <c r="CX8" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>192</v>
@@ -4813,6 +4858,9 @@
       </c>
       <c r="CW9" t="s">
         <v>3</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -5119,6 +5167,9 @@
       <c r="CW10" t="s">
         <v>3</v>
       </c>
+      <c r="CX10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -5424,6 +5475,9 @@
       <c r="CW11" t="s">
         <v>2</v>
       </c>
+      <c r="CX11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -5729,6 +5783,9 @@
       <c r="CW12" t="s">
         <v>4</v>
       </c>
+      <c r="CX12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -6034,10 +6091,13 @@
       <c r="CW13" t="s">
         <v>4</v>
       </c>
+      <c r="CX13" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>192</v>
@@ -6338,6 +6398,9 @@
       </c>
       <c r="CW14" t="s">
         <v>3</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -6644,10 +6707,13 @@
       <c r="CW15" t="s">
         <v>4</v>
       </c>
+      <c r="CX15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>192</v>
@@ -6948,6 +7014,9 @@
       </c>
       <c r="CW16" t="s">
         <v>3</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -7254,6 +7323,9 @@
       <c r="CW17" t="s">
         <v>2</v>
       </c>
+      <c r="CX17" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -7559,6 +7631,9 @@
       <c r="CW18" t="s">
         <v>2</v>
       </c>
+      <c r="CX18" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -7864,6 +7939,9 @@
       <c r="CW19" t="s">
         <v>3</v>
       </c>
+      <c r="CX19" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -8169,6 +8247,9 @@
       <c r="CW20" t="s">
         <v>3</v>
       </c>
+      <c r="CX20" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -8472,6 +8553,9 @@
         <v>4</v>
       </c>
       <c r="CW21" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8491,309 +8575,312 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>102</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>103</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>104</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>105</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>107</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>108</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>109</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>110</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>111</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>112</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>113</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>118</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>119</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>121</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>122</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>123</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>127</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>129</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>130</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>131</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>132</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>133</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>134</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>135</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>136</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>137</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>138</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>139</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>141</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>142</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>144</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>145</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>146</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>147</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>148</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>149</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>150</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>151</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>152</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>153</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>154</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>155</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>156</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>157</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>158</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>159</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>160</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>161</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>162</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>163</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>164</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>165</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>166</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>167</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>168</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>169</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>170</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>171</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>172</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>173</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>174</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>175</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>176</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>177</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>178</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>179</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>180</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>181</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>182</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>183</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>184</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>185</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>186</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>187</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>188</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>189</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>190</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
@@ -9094,6 +9181,9 @@
       </c>
       <c r="CW2" t="s">
         <v>10</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3">
@@ -9400,6 +9490,9 @@
       <c r="CW3" t="s">
         <v>12</v>
       </c>
+      <c r="CX3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -9705,6 +9798,9 @@
       <c r="CW4" t="s">
         <v>11</v>
       </c>
+      <c r="CX4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -10010,6 +10106,9 @@
       <c r="CW5" t="s">
         <v>193</v>
       </c>
+      <c r="CX5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -10315,10 +10414,13 @@
       <c r="CW6" t="s">
         <v>193</v>
       </c>
+      <c r="CX6" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>192</v>
@@ -10619,6 +10721,9 @@
       </c>
       <c r="CW7" t="s">
         <v>11</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8">
@@ -10925,10 +11030,13 @@
       <c r="CW8" t="s">
         <v>193</v>
       </c>
+      <c r="CX8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>192</v>
@@ -11229,6 +11337,9 @@
       </c>
       <c r="CW9" t="s">
         <v>9</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -11535,6 +11646,9 @@
       <c r="CW10" t="s">
         <v>10</v>
       </c>
+      <c r="CX10" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -11840,6 +11954,9 @@
       <c r="CW11" t="s">
         <v>11</v>
       </c>
+      <c r="CX11" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -12145,6 +12262,9 @@
       <c r="CW12" t="s">
         <v>193</v>
       </c>
+      <c r="CX12" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -12450,10 +12570,13 @@
       <c r="CW13" t="s">
         <v>11</v>
       </c>
+      <c r="CX13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>192</v>
@@ -12754,6 +12877,9 @@
       </c>
       <c r="CW14" t="s">
         <v>193</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -13060,10 +13186,13 @@
       <c r="CW15" t="s">
         <v>9</v>
       </c>
+      <c r="CX15" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>192</v>
@@ -13364,6 +13493,9 @@
       </c>
       <c r="CW16" t="s">
         <v>10</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="17">
@@ -13670,6 +13802,9 @@
       <c r="CW17" t="s">
         <v>10</v>
       </c>
+      <c r="CX17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -13975,6 +14110,9 @@
       <c r="CW18" t="s">
         <v>10</v>
       </c>
+      <c r="CX18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -14280,6 +14418,9 @@
       <c r="CW19" t="s">
         <v>193</v>
       </c>
+      <c r="CX19" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -14585,6 +14726,9 @@
       <c r="CW20" t="s">
         <v>9</v>
       </c>
+      <c r="CX20" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -14889,6 +15033,9 @@
       </c>
       <c r="CW21" t="s">
         <v>9</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -14907,309 +15054,312 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>102</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>103</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>104</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>105</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>107</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>108</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>109</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>110</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>111</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>112</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>113</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>118</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>119</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>121</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>122</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>123</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>127</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>129</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>130</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>131</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>132</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>133</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>134</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>135</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>136</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>137</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>138</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>139</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>141</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>142</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>144</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>145</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>146</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>147</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>148</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>149</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>150</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>151</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>152</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>153</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>154</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>155</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>156</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>157</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>158</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>159</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>160</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>161</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>162</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>163</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>164</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>165</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>166</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>167</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>168</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>169</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>170</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>171</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>172</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>173</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>174</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>175</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>176</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>177</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>178</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>179</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>180</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>181</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>182</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>183</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>184</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>185</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>186</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>187</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>188</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>189</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>190</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
@@ -15510,6 +15660,9 @@
       </c>
       <c r="CW2" t="s">
         <v>193</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -15816,6 +15969,9 @@
       <c r="CW3" t="s">
         <v>11</v>
       </c>
+      <c r="CX3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -16121,6 +16277,9 @@
       <c r="CW4" t="s">
         <v>9</v>
       </c>
+      <c r="CX4" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -16426,6 +16585,9 @@
       <c r="CW5" t="s">
         <v>10</v>
       </c>
+      <c r="CX5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -16731,10 +16893,13 @@
       <c r="CW6" t="s">
         <v>11</v>
       </c>
+      <c r="CX6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>192</v>
@@ -17035,6 +17200,9 @@
       </c>
       <c r="CW7" t="s">
         <v>193</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -17341,10 +17509,13 @@
       <c r="CW8" t="s">
         <v>10</v>
       </c>
+      <c r="CX8" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>192</v>
@@ -17645,6 +17816,9 @@
       </c>
       <c r="CW9" t="s">
         <v>9</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -17951,6 +18125,9 @@
       <c r="CW10" t="s">
         <v>10</v>
       </c>
+      <c r="CX10" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -18256,6 +18433,9 @@
       <c r="CW11" t="s">
         <v>193</v>
       </c>
+      <c r="CX11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -18561,6 +18741,9 @@
       <c r="CW12" t="s">
         <v>11</v>
       </c>
+      <c r="CX12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -18866,10 +19049,13 @@
       <c r="CW13" t="s">
         <v>12</v>
       </c>
+      <c r="CX13" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>192</v>
@@ -19169,6 +19355,9 @@
         <v>10</v>
       </c>
       <c r="CW14" t="s">
+        <v>193</v>
+      </c>
+      <c r="CX14" t="s">
         <v>193</v>
       </c>
     </row>
@@ -19476,10 +19665,13 @@
       <c r="CW15" t="s">
         <v>10</v>
       </c>
+      <c r="CX15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>192</v>
@@ -19780,6 +19972,9 @@
       </c>
       <c r="CW16" t="s">
         <v>10</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -20086,6 +20281,9 @@
       <c r="CW17" t="s">
         <v>193</v>
       </c>
+      <c r="CX17" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -20391,6 +20589,9 @@
       <c r="CW18" t="s">
         <v>9</v>
       </c>
+      <c r="CX18" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -20696,6 +20897,9 @@
       <c r="CW19" t="s">
         <v>193</v>
       </c>
+      <c r="CX19" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -21001,6 +21205,9 @@
       <c r="CW20" t="s">
         <v>9</v>
       </c>
+      <c r="CX20" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -21304,6 +21511,9 @@
         <v>9</v>
       </c>
       <c r="CW21" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX21" t="s">
         <v>11</v>
       </c>
     </row>
@@ -21323,309 +21533,312 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
         <v>92</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>93</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>96</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>99</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>102</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>103</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>104</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>105</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>106</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>107</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>108</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>109</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>110</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>111</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>112</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>113</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>115</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>116</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>117</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>118</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>119</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>121</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>122</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>123</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>127</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>129</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>130</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>131</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>132</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>133</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>134</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>135</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>136</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>137</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>138</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>139</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>141</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>142</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>144</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>145</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>146</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>147</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>148</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>149</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>150</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>151</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>152</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>153</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>154</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>155</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>156</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>157</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>158</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>159</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>160</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>161</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>162</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>163</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>164</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>165</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>166</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>167</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>168</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>169</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>170</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>171</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>172</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>173</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>174</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>175</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>176</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>177</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>178</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>179</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>180</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>181</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>182</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CP1" t="s">
         <v>183</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CQ1" t="s">
         <v>184</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CR1" t="s">
         <v>185</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CS1" t="s">
         <v>186</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CT1" t="s">
         <v>187</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CU1" t="s">
         <v>188</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CV1" t="s">
         <v>189</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CW1" t="s">
         <v>190</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CX1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
@@ -21926,6 +22139,9 @@
       </c>
       <c r="CW2" t="s">
         <v>10</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -22232,6 +22448,9 @@
       <c r="CW3" t="s">
         <v>15</v>
       </c>
+      <c r="CX3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -22537,6 +22756,9 @@
       <c r="CW4" t="s">
         <v>12</v>
       </c>
+      <c r="CX4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -22842,6 +23064,9 @@
       <c r="CW5" t="s">
         <v>10</v>
       </c>
+      <c r="CX5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
@@ -23147,10 +23372,13 @@
       <c r="CW6" t="s">
         <v>11</v>
       </c>
+      <c r="CX6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>192</v>
@@ -23451,6 +23679,9 @@
       </c>
       <c r="CW7" t="s">
         <v>11</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -23757,10 +23988,13 @@
       <c r="CW8" t="s">
         <v>10</v>
       </c>
+      <c r="CX8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>192</v>
@@ -24061,6 +24295,9 @@
       </c>
       <c r="CW9" t="s">
         <v>10</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -24367,6 +24604,9 @@
       <c r="CW10" t="s">
         <v>12</v>
       </c>
+      <c r="CX10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
@@ -24672,6 +24912,9 @@
       <c r="CW11" t="s">
         <v>11</v>
       </c>
+      <c r="CX11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
@@ -24977,6 +25220,9 @@
       <c r="CW12" t="s">
         <v>11</v>
       </c>
+      <c r="CX12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -25282,10 +25528,13 @@
       <c r="CW13" t="s">
         <v>15</v>
       </c>
+      <c r="CX13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>192</v>
@@ -25586,6 +25835,9 @@
       </c>
       <c r="CW14" t="s">
         <v>193</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -25892,10 +26144,13 @@
       <c r="CW15" t="s">
         <v>11</v>
       </c>
+      <c r="CX15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>192</v>
@@ -26195,6 +26450,9 @@
         <v>12</v>
       </c>
       <c r="CW16" t="s">
+        <v>12</v>
+      </c>
+      <c r="CX16" t="s">
         <v>12</v>
       </c>
     </row>
@@ -26502,6 +26760,9 @@
       <c r="CW17" t="s">
         <v>10</v>
       </c>
+      <c r="CX17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -26807,6 +27068,9 @@
       <c r="CW18" t="s">
         <v>11</v>
       </c>
+      <c r="CX18" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -27112,6 +27376,9 @@
       <c r="CW19" t="s">
         <v>193</v>
       </c>
+      <c r="CX19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -27417,6 +27684,9 @@
       <c r="CW20" t="s">
         <v>10</v>
       </c>
+      <c r="CX20" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -27721,6 +27991,9 @@
       </c>
       <c r="CW21" t="s">
         <v>12</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -27739,7 +28012,7 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
         <v>35</v>
@@ -27754,13 +28027,13 @@
         <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
         <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
         <v>32</v>
@@ -27775,13 +28048,13 @@
         <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O1" t="s">
         <v>46</v>
       </c>
       <c r="P1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
         <v>30</v>
@@ -27816,7 +28089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
@@ -27879,19 +28152,19 @@
         <v>10</v>
       </c>
       <c r="V2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="W2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="X2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y2" t="s">
         <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
@@ -27962,16 +28235,16 @@
         <v>200</v>
       </c>
       <c r="W3" t="s">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Y3" t="s">
         <v>49</v>
       </c>
       <c r="Z3" t="s">
-        <v>221</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -27979,7 +28252,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -28042,16 +28315,16 @@
         <v>201</v>
       </c>
       <c r="W4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="X4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Y4" t="s">
         <v>49</v>
       </c>
       <c r="Z4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
@@ -28110,7 +28383,7 @@
         <v>10</v>
       </c>
       <c r="S5" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="T5" t="s">
         <v>11</v>
@@ -28119,19 +28392,19 @@
         <v>9</v>
       </c>
       <c r="V5" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="X5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y5" t="s">
         <v>49</v>
       </c>
       <c r="Z5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6">
@@ -28199,13 +28472,13 @@
         <v>193</v>
       </c>
       <c r="V6" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="W6" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="X6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Y6" t="s">
         <v>49</v>
@@ -28216,7 +28489,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -28282,16 +28555,16 @@
         <v>202</v>
       </c>
       <c r="W7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="X7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y7" t="s">
         <v>49</v>
       </c>
       <c r="Z7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8">
@@ -28323,7 +28596,7 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="K8" t="s">
         <v>193</v>
@@ -28359,24 +28632,24 @@
         <v>9</v>
       </c>
       <c r="V8" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="W8" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="X8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y8" t="s">
         <v>49</v>
       </c>
       <c r="Z8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -28439,19 +28712,19 @@
         <v>193</v>
       </c>
       <c r="V9" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
-        <v>71</v>
+        <v>201</v>
       </c>
       <c r="X9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y9" t="s">
         <v>49</v>
       </c>
       <c r="Z9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10">
@@ -28519,19 +28792,19 @@
         <v>193</v>
       </c>
       <c r="V10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="X10" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Y10" t="s">
         <v>49</v>
       </c>
       <c r="Z10" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -28542,7 +28815,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -28599,19 +28872,19 @@
         <v>13</v>
       </c>
       <c r="V11" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="W11" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="X11" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="Y11" t="s">
         <v>49</v>
       </c>
       <c r="Z11" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -28664,7 +28937,7 @@
         <v>10</v>
       </c>
       <c r="Q12" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="R12" t="s">
         <v>9</v>
@@ -28679,19 +28952,19 @@
         <v>10</v>
       </c>
       <c r="V12" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Y12" t="s">
         <v>49</v>
       </c>
       <c r="Z12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13">
@@ -28756,27 +29029,27 @@
         <v>12</v>
       </c>
       <c r="U13" t="s">
-        <v>192</v>
+        <v>13</v>
       </c>
       <c r="V13" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="X13" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y13" t="s">
         <v>49</v>
       </c>
       <c r="Z13" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -28791,7 +29064,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -28839,19 +29112,19 @@
         <v>11</v>
       </c>
       <c r="V14" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="W14" t="s">
-        <v>204</v>
+        <v>69</v>
       </c>
       <c r="X14" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Y14" t="s">
         <v>49</v>
       </c>
       <c r="Z14" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15">
@@ -28919,24 +29192,24 @@
         <v>11</v>
       </c>
       <c r="V15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W15" t="s">
         <v>53</v>
       </c>
       <c r="X15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Y15" t="s">
         <v>49</v>
       </c>
       <c r="Z15" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -28960,7 +29233,7 @@
         <v>11</v>
       </c>
       <c r="I16" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="J16" t="s">
         <v>9</v>
@@ -28999,19 +29272,19 @@
         <v>9</v>
       </c>
       <c r="V16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="W16" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="Y16" t="s">
         <v>49</v>
       </c>
       <c r="Z16" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -29082,10 +29355,10 @@
         <v>71</v>
       </c>
       <c r="W17" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="X17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Y17" t="s">
         <v>49</v>
@@ -29114,7 +29387,7 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>192</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
@@ -29159,19 +29432,19 @@
         <v>193</v>
       </c>
       <c r="V18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X18" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Y18" t="s">
         <v>49</v>
       </c>
       <c r="Z18" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19">
@@ -29239,19 +29512,19 @@
         <v>13</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="W19" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="X19" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Y19" t="s">
         <v>49</v>
       </c>
       <c r="Z19" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20">
@@ -29298,7 +29571,7 @@
         <v>10</v>
       </c>
       <c r="O20" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="P20" t="s">
         <v>10</v>
@@ -29322,16 +29595,16 @@
         <v>53</v>
       </c>
       <c r="W20" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s">
         <v>49</v>
       </c>
       <c r="Z20" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21">
@@ -29399,19 +29672,19 @@
         <v>192</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="W21" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="X21" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="Y21" t="s">
         <v>49</v>
       </c>
       <c r="Z21" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -29430,76 +29703,76 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="G1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="J1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N1" t="s">
         <v>198</v>
       </c>
       <c r="O1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="R1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="S1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="T1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="U1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="V1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="W1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="X1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Y1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2">
@@ -29507,16 +29780,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="n">
         <v>68.0</v>
       </c>
       <c r="D2" t="n">
-        <v>98.0</v>
+        <v>100.0</v>
       </c>
       <c r="E2" t="n">
-        <v>166.0</v>
+        <v>168.0</v>
       </c>
       <c r="F2" t="n">
         <v>18.0</v>
@@ -29528,31 +29801,31 @@
         <v>19.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.0555555555555556</v>
+        <v>1.0</v>
       </c>
       <c r="J2" t="n">
         <v>37.0</v>
       </c>
       <c r="K2" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="N2" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O2" t="n">
         <v>100.0</v>
       </c>
       <c r="P2" t="n">
-        <v>85.0</v>
+        <v>92.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>185.0</v>
+        <v>192.0</v>
       </c>
       <c r="R2" t="n">
         <v>19.0</v>
@@ -29561,22 +29834,22 @@
         <v>1.0</v>
       </c>
       <c r="T2" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.4444444444444444</v>
+        <v>1.5263157894736843</v>
       </c>
       <c r="V2" t="n">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="W2" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="X2" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Y2" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
@@ -29590,10 +29863,10 @@
         <v>92.0</v>
       </c>
       <c r="D3" t="n">
-        <v>56.0</v>
+        <v>60.0</v>
       </c>
       <c r="E3" t="n">
-        <v>148.0</v>
+        <v>152.0</v>
       </c>
       <c r="F3" t="n">
         <v>36.0</v>
@@ -29602,34 +29875,34 @@
         <v>1.894736842105263</v>
       </c>
       <c r="H3" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2777777777777777</v>
+        <v>1.3157894736842106</v>
       </c>
       <c r="J3" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="K3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="L3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M3" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N3" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O3" t="n">
         <v>88.0</v>
       </c>
       <c r="P3" t="n">
-        <v>102.0</v>
+        <v>107.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>190.0</v>
+        <v>195.0</v>
       </c>
       <c r="R3" t="n">
         <v>27.0</v>
@@ -29641,19 +29914,19 @@
         <v>26.0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.4444444444444444</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="V3" t="n">
         <v>53.0</v>
       </c>
       <c r="W3" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="X3" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Y3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
@@ -29664,19 +29937,19 @@
         <v>36</v>
       </c>
       <c r="C4" t="n">
-        <v>67.0</v>
+        <v>74.0</v>
       </c>
       <c r="D4" t="n">
         <v>78.0</v>
       </c>
       <c r="E4" t="n">
-        <v>145.0</v>
+        <v>152.0</v>
       </c>
       <c r="F4" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.4444444444444444</v>
+        <v>1.5263157894736843</v>
       </c>
       <c r="H4" t="n">
         <v>21.0</v>
@@ -29685,34 +29958,34 @@
         <v>1.105263157894737</v>
       </c>
       <c r="J4" t="n">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="K4" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="N4" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O4" t="n">
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="P4" t="n">
         <v>67.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.0</v>
+        <v>125.0</v>
       </c>
       <c r="R4" t="n">
         <v>14.0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="T4" t="n">
         <v>23.0</v>
@@ -29724,13 +29997,13 @@
         <v>37.0</v>
       </c>
       <c r="W4" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="X4" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="Y4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
@@ -29741,19 +30014,19 @@
         <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>89.0</v>
+        <v>93.0</v>
       </c>
       <c r="D5" t="n">
         <v>88.0</v>
       </c>
       <c r="E5" t="n">
-        <v>177.0</v>
+        <v>181.0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.3333333333333333</v>
+        <v>1.3157894736842106</v>
       </c>
       <c r="H5" t="n">
         <v>23.0</v>
@@ -29762,34 +30035,34 @@
         <v>1.2105263157894737</v>
       </c>
       <c r="J5" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="K5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L5" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M5" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="N5" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O5" t="n">
-        <v>62.0</v>
+        <v>70.0</v>
       </c>
       <c r="P5" t="n">
         <v>74.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>136.0</v>
+        <v>144.0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="T5" t="n">
         <v>21.0</v>
@@ -29798,16 +30071,16 @@
         <v>1.105263157894737</v>
       </c>
       <c r="V5" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="W5" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="X5" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Y5" t="s">
-        <v>273</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6">
@@ -29821,10 +30094,10 @@
         <v>74.0</v>
       </c>
       <c r="D6" t="n">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0</v>
+        <v>136.0</v>
       </c>
       <c r="F6" t="n">
         <v>15.0</v>
@@ -29836,31 +30109,31 @@
         <v>14.0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="J6" t="n">
         <v>29.0</v>
       </c>
       <c r="K6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="L6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M6" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="N6" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O6" t="n">
         <v>116.0</v>
       </c>
       <c r="P6" t="n">
-        <v>99.0</v>
+        <v>105.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>215.0</v>
+        <v>221.0</v>
       </c>
       <c r="R6" t="n">
         <v>20.0</v>
@@ -29869,22 +30142,22 @@
         <v>1.0526315789473684</v>
       </c>
       <c r="T6" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.3888888888888888</v>
+        <v>1.4210526315789473</v>
       </c>
       <c r="V6" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="W6" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="X6" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Y6" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7">
@@ -29892,16 +30165,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
         <v>99.0</v>
       </c>
       <c r="D7" t="n">
-        <v>86.0</v>
+        <v>90.0</v>
       </c>
       <c r="E7" t="n">
-        <v>185.0</v>
+        <v>189.0</v>
       </c>
       <c r="F7" t="n">
         <v>27.0</v>
@@ -29913,31 +30186,31 @@
         <v>19.0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0555555555555556</v>
+        <v>1.0</v>
       </c>
       <c r="J7" t="n">
         <v>46.0</v>
       </c>
       <c r="K7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="N7" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O7" t="n">
         <v>77.0</v>
       </c>
       <c r="P7" t="n">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0</v>
+        <v>145.0</v>
       </c>
       <c r="R7" t="n">
         <v>22.0</v>
@@ -29946,22 +30219,22 @@
         <v>1.1578947368421053</v>
       </c>
       <c r="T7" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="U7" t="n">
-        <v>1.1666666666666667</v>
+        <v>1.1578947368421053</v>
       </c>
       <c r="V7" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="W7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="X7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="Y7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
@@ -29972,16 +30245,16 @@
         <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>102.0</v>
+        <v>107.0</v>
       </c>
       <c r="D8" t="n">
         <v>108.0</v>
       </c>
       <c r="E8" t="n">
-        <v>210.0</v>
+        <v>215.0</v>
       </c>
       <c r="F8" t="n">
-        <v>36.0</v>
+        <v>38.0</v>
       </c>
       <c r="G8" t="n">
         <v>2.0</v>
@@ -29993,34 +30266,34 @@
         <v>1.5789473684210527</v>
       </c>
       <c r="J8" t="n">
-        <v>66.0</v>
+        <v>68.0</v>
       </c>
       <c r="K8" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M8" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="N8" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O8" t="n">
-        <v>59.0</v>
+        <v>61.0</v>
       </c>
       <c r="P8" t="n">
         <v>67.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>126.0</v>
+        <v>128.0</v>
       </c>
       <c r="R8" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="T8" t="n">
         <v>20.0</v>
@@ -30029,16 +30302,16 @@
         <v>1.0526315789473684</v>
       </c>
       <c r="V8" t="n">
-        <v>34.0</v>
+        <v>35.0</v>
       </c>
       <c r="W8" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="X8" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="Y8" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9">
@@ -30046,16 +30319,16 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
         <v>79.0</v>
       </c>
       <c r="D9" t="n">
-        <v>58.0</v>
+        <v>67.0</v>
       </c>
       <c r="E9" t="n">
-        <v>137.0</v>
+        <v>146.0</v>
       </c>
       <c r="F9" t="n">
         <v>16.0</v>
@@ -30064,34 +30337,34 @@
         <v>0.8421052631578947</v>
       </c>
       <c r="H9" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
+        <v>1.1578947368421053</v>
       </c>
       <c r="J9" t="n">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
       <c r="K9" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L9" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M9" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="N9" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O9" t="n">
         <v>80.0</v>
       </c>
       <c r="P9" t="n">
-        <v>68.0</v>
+        <v>70.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>148.0</v>
+        <v>150.0</v>
       </c>
       <c r="R9" t="n">
         <v>21.0</v>
@@ -30103,19 +30376,19 @@
         <v>21.0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.1666666666666667</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="V9" t="n">
         <v>42.0</v>
       </c>
       <c r="W9" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="X9" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="Y9" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
@@ -30129,10 +30402,10 @@
         <v>99.0</v>
       </c>
       <c r="D10" t="n">
-        <v>96.0</v>
+        <v>98.0</v>
       </c>
       <c r="E10" t="n">
-        <v>195.0</v>
+        <v>197.0</v>
       </c>
       <c r="F10" t="n">
         <v>36.0</v>
@@ -30141,34 +30414,34 @@
         <v>1.894736842105263</v>
       </c>
       <c r="H10" t="n">
-        <v>31.0</v>
+        <v>32.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.7222222222222223</v>
+        <v>1.6842105263157894</v>
       </c>
       <c r="J10" t="n">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="K10" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L10" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M10" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="N10" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O10" t="n">
         <v>78.0</v>
       </c>
       <c r="P10" t="n">
-        <v>65.0</v>
+        <v>70.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>143.0</v>
+        <v>148.0</v>
       </c>
       <c r="R10" t="n">
         <v>28.0</v>
@@ -30177,22 +30450,22 @@
         <v>1.4736842105263157</v>
       </c>
       <c r="T10" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9444444444444444</v>
+        <v>1.0</v>
       </c>
       <c r="V10" t="n">
-        <v>45.0</v>
+        <v>47.0</v>
       </c>
       <c r="W10" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="X10" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="Y10" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11">
@@ -30203,19 +30476,19 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>92.0</v>
+        <v>97.0</v>
       </c>
       <c r="D11" t="n">
         <v>79.0</v>
       </c>
       <c r="E11" t="n">
-        <v>171.0</v>
+        <v>176.0</v>
       </c>
       <c r="F11" t="n">
         <v>27.0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>1.4210526315789473</v>
       </c>
       <c r="H11" t="n">
         <v>24.0</v>
@@ -30227,31 +30500,31 @@
         <v>51.0</v>
       </c>
       <c r="K11" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="L11" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="M11" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="N11" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O11" t="n">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="P11" t="n">
         <v>70.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>117.0</v>
+        <v>121.0</v>
       </c>
       <c r="R11" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="T11" t="n">
         <v>17.0</v>
@@ -30260,16 +30533,16 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="V11" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="W11" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="X11" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Y11" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12">
@@ -30280,19 +30553,19 @@
         <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="D12" t="n">
         <v>66.0</v>
       </c>
       <c r="E12" t="n">
-        <v>134.0</v>
+        <v>135.0</v>
       </c>
       <c r="F12" t="n">
         <v>18.0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.0</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="H12" t="n">
         <v>11.0</v>
@@ -30304,31 +30577,31 @@
         <v>29.0</v>
       </c>
       <c r="K12" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="L12" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M12" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="N12" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O12" t="n">
-        <v>66.0</v>
+        <v>70.0</v>
       </c>
       <c r="P12" t="n">
         <v>82.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>148.0</v>
+        <v>152.0</v>
       </c>
       <c r="R12" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4444444444444444</v>
+        <v>1.5263157894736843</v>
       </c>
       <c r="T12" t="n">
         <v>31.0</v>
@@ -30337,16 +30610,16 @@
         <v>1.631578947368421</v>
       </c>
       <c r="V12" t="n">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="W12" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="X12" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="Y12" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13">
@@ -30357,19 +30630,19 @@
         <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>80.0</v>
+        <v>86.0</v>
       </c>
       <c r="D13" t="n">
         <v>73.0</v>
       </c>
       <c r="E13" t="n">
-        <v>153.0</v>
+        <v>159.0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.0</v>
+        <v>26.0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.2777777777777777</v>
+        <v>1.368421052631579</v>
       </c>
       <c r="H13" t="n">
         <v>28.0</v>
@@ -30378,34 +30651,34 @@
         <v>1.4736842105263157</v>
       </c>
       <c r="J13" t="n">
-        <v>51.0</v>
+        <v>54.0</v>
       </c>
       <c r="K13" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="L13" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="M13" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="N13" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O13" t="n">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
       <c r="P13" t="n">
         <v>97.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>160.0</v>
+        <v>163.0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9444444444444444</v>
+        <v>1.0</v>
       </c>
       <c r="T13" t="n">
         <v>40.0</v>
@@ -30414,16 +30687,16 @@
         <v>2.1052631578947367</v>
       </c>
       <c r="V13" t="n">
-        <v>57.0</v>
+        <v>59.0</v>
       </c>
       <c r="W13" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="X13" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Y13" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14">
@@ -30431,22 +30704,22 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>75.0</v>
+        <v>81.0</v>
       </c>
       <c r="D14" t="n">
         <v>61.0</v>
       </c>
       <c r="E14" t="n">
-        <v>136.0</v>
+        <v>142.0</v>
       </c>
       <c r="F14" t="n">
-        <v>25.0</v>
+        <v>27.0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.3888888888888888</v>
+        <v>1.4210526315789473</v>
       </c>
       <c r="H14" t="n">
         <v>13.0</v>
@@ -30455,34 +30728,34 @@
         <v>0.6842105263157895</v>
       </c>
       <c r="J14" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>275</v>
+      </c>
+      <c r="L14" t="s">
+        <v>294</v>
+      </c>
+      <c r="M14" t="s">
+        <v>313</v>
+      </c>
+      <c r="N14" t="n">
         <v>38.0</v>
       </c>
-      <c r="K14" t="s">
-        <v>268</v>
-      </c>
-      <c r="L14" t="s">
-        <v>286</v>
-      </c>
-      <c r="M14" t="s">
-        <v>304</v>
-      </c>
-      <c r="N14" t="n">
-        <v>37.0</v>
-      </c>
       <c r="O14" t="n">
-        <v>77.0</v>
+        <v>78.0</v>
       </c>
       <c r="P14" t="n">
         <v>71.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.0</v>
+        <v>149.0</v>
       </c>
       <c r="R14" t="n">
         <v>19.0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.0555555555555556</v>
+        <v>1.0</v>
       </c>
       <c r="T14" t="n">
         <v>20.0</v>
@@ -30494,13 +30767,13 @@
         <v>39.0</v>
       </c>
       <c r="W14" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="X14" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="Y14" t="s">
-        <v>352</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15">
@@ -30526,16 +30799,16 @@
         <v>1.0</v>
       </c>
       <c r="H15" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="J15" t="n">
-        <v>30.0</v>
+        <v>31.0</v>
       </c>
       <c r="K15" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="L15" t="e">
         <v>#N/A</v>
@@ -30544,7 +30817,7 @@
         <v>#N/A</v>
       </c>
       <c r="N15" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O15" t="n">
         <v>92.0</v>
@@ -30562,16 +30835,16 @@
         <v>1.2105263157894737</v>
       </c>
       <c r="T15" t="n">
-        <v>32.0</v>
+        <v>34.0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.7777777777777777</v>
+        <v>1.7894736842105263</v>
       </c>
       <c r="V15" t="n">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="W15" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="X15" t="e">
         <v>#N/A</v>
@@ -30585,22 +30858,22 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>77.0</v>
+        <v>79.0</v>
       </c>
       <c r="D16" t="n">
         <v>77.0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0</v>
+        <v>156.0</v>
       </c>
       <c r="F16" t="n">
         <v>20.0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.1111111111111112</v>
+        <v>1.0526315789473684</v>
       </c>
       <c r="H16" t="n">
         <v>22.0</v>
@@ -30612,31 +30885,31 @@
         <v>42.0</v>
       </c>
       <c r="K16" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L16" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="M16" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="N16" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O16" t="n">
-        <v>60.0</v>
+        <v>69.0</v>
       </c>
       <c r="P16" t="n">
         <v>86.0</v>
       </c>
       <c r="Q16" t="n">
-        <v>146.0</v>
+        <v>155.0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.0</v>
+        <v>1.1578947368421053</v>
       </c>
       <c r="T16" t="n">
         <v>23.0</v>
@@ -30645,16 +30918,16 @@
         <v>1.2105263157894737</v>
       </c>
       <c r="V16" t="n">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="W16" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="X16" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="Y16" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17">
@@ -30668,7 +30941,7 @@
         <v>#N/A</v>
       </c>
       <c r="D17" t="n">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
       <c r="E17" t="e">
         <v>#N/A</v>
@@ -30680,31 +30953,31 @@
         <v>1.368421052631579</v>
       </c>
       <c r="H17" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9444444444444444</v>
+        <v>1.0526315789473684</v>
       </c>
       <c r="J17" t="n">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="K17" t="e">
         <v>#N/A</v>
       </c>
       <c r="L17" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="M17" t="e">
         <v>#N/A</v>
       </c>
       <c r="N17" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O17" t="e">
         <v>#N/A</v>
       </c>
       <c r="P17" t="n">
-        <v>90.0</v>
+        <v>91.0</v>
       </c>
       <c r="Q17" t="e">
         <v>#N/A</v>
@@ -30719,7 +30992,7 @@
         <v>21.0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.1666666666666667</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="V17" t="n">
         <v>34.0</v>
@@ -30728,7 +31001,7 @@
         <v>#N/A</v>
       </c>
       <c r="X17" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Y17" t="e">
         <v>#N/A</v>
@@ -30742,19 +31015,19 @@
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>66.0</v>
+        <v>70.0</v>
       </c>
       <c r="D18" t="n">
         <v>64.0</v>
       </c>
       <c r="E18" t="n">
-        <v>130.0</v>
+        <v>134.0</v>
       </c>
       <c r="F18" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.3333333333333333</v>
+        <v>1.3157894736842106</v>
       </c>
       <c r="H18" t="n">
         <v>19.0</v>
@@ -30763,34 +31036,34 @@
         <v>1.0</v>
       </c>
       <c r="J18" t="n">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="K18" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="L18" t="s">
+        <v>297</v>
+      </c>
+      <c r="M18" t="s">
         <v>289</v>
       </c>
-      <c r="M18" t="s">
-        <v>305</v>
-      </c>
       <c r="N18" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O18" t="n">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="P18" t="n">
         <v>100.0</v>
       </c>
       <c r="Q18" t="n">
-        <v>174.0</v>
+        <v>178.0</v>
       </c>
       <c r="R18" t="n">
         <v>19.0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.0555555555555556</v>
+        <v>1.0</v>
       </c>
       <c r="T18" t="n">
         <v>23.0</v>
@@ -30802,13 +31075,13 @@
         <v>42.0</v>
       </c>
       <c r="W18" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="X18" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Y18" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19">
@@ -30822,10 +31095,10 @@
         <v>107.0</v>
       </c>
       <c r="D19" t="n">
-        <v>86.0</v>
+        <v>94.0</v>
       </c>
       <c r="E19" t="n">
-        <v>193.0</v>
+        <v>201.0</v>
       </c>
       <c r="F19" t="n">
         <v>28.0</v>
@@ -30834,34 +31107,34 @@
         <v>1.4736842105263157</v>
       </c>
       <c r="H19" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.3333333333333333</v>
+        <v>1.3157894736842106</v>
       </c>
       <c r="J19" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="K19" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="L19" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="M19" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="N19" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O19" t="n">
         <v>61.0</v>
       </c>
       <c r="P19" t="n">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.0</v>
+        <v>129.0</v>
       </c>
       <c r="R19" t="n">
         <v>19.0</v>
@@ -30870,22 +31143,22 @@
         <v>1.0</v>
       </c>
       <c r="T19" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.0555555555555556</v>
+        <v>1.0526315789473684</v>
       </c>
       <c r="V19" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="W19" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="X19" t="s">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="Y19" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20">
@@ -30896,19 +31169,19 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>78.0</v>
+        <v>82.0</v>
       </c>
       <c r="D20" t="n">
         <v>77.0</v>
       </c>
       <c r="E20" t="n">
-        <v>155.0</v>
+        <v>159.0</v>
       </c>
       <c r="F20" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.1111111111111112</v>
+        <v>1.1578947368421053</v>
       </c>
       <c r="H20" t="n">
         <v>26.0</v>
@@ -30917,34 +31190,34 @@
         <v>1.368421052631579</v>
       </c>
       <c r="J20" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="K20" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L20" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="M20" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="N20" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O20" t="n">
-        <v>64.0</v>
+        <v>67.0</v>
       </c>
       <c r="P20" t="n">
         <v>79.0</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.0</v>
+        <v>146.0</v>
       </c>
       <c r="R20" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.2777777777777777</v>
+        <v>1.263157894736842</v>
       </c>
       <c r="T20" t="n">
         <v>29.0</v>
@@ -30953,16 +31226,16 @@
         <v>1.5263157894736843</v>
       </c>
       <c r="V20" t="n">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="W20" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="X20" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="Y20" t="s">
-        <v>265</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21">
@@ -30976,10 +31249,10 @@
         <v>68.0</v>
       </c>
       <c r="D21" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="E21" t="n">
-        <v>116.0</v>
+        <v>119.0</v>
       </c>
       <c r="F21" t="n">
         <v>17.0</v>
@@ -30988,34 +31261,34 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="H21" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="J21" t="n">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="K21" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L21" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="M21" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="N21" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="O21" t="n">
         <v>94.0</v>
       </c>
       <c r="P21" t="n">
-        <v>92.0</v>
+        <v>98.0</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.0</v>
+        <v>192.0</v>
       </c>
       <c r="R21" t="n">
         <v>35.0</v>
@@ -31024,22 +31297,22 @@
         <v>1.8421052631578947</v>
       </c>
       <c r="T21" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.4444444444444444</v>
+        <v>1.5263157894736843</v>
       </c>
       <c r="V21" t="n">
-        <v>61.0</v>
+        <v>64.0</v>
       </c>
       <c r="W21" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="X21" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="Y21" t="s">
-        <v>355</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -31058,16 +31331,16 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
@@ -31075,16 +31348,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E2" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3">
@@ -31092,16 +31365,16 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D3" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="E3" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4">
@@ -31109,16 +31382,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D4" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E4" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5">
@@ -31126,16 +31399,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C5" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E5" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
@@ -31143,16 +31416,16 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C6" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D6" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="E6" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7">
@@ -31160,16 +31433,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="D7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="E7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8">
@@ -31177,16 +31450,16 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D8" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="E8" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9">
@@ -31194,16 +31467,16 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C9" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D9" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E9" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10">
@@ -31211,16 +31484,16 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C10" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D10" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="E10" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11">
@@ -31228,16 +31501,16 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C11" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D11" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E11" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12">
@@ -31245,16 +31518,16 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C12" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D12" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E12" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13">
@@ -31262,16 +31535,16 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C13" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D13" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="E13" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14">
@@ -31279,16 +31552,16 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D14" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="E14" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15">
@@ -31296,16 +31569,16 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C15" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="D15" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="E15" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16">
@@ -31313,16 +31586,16 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C16" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="D16" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="E16" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17">
@@ -31330,16 +31603,16 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C17" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D17" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="E17" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18">
@@ -31347,16 +31620,16 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C18" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D18" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="E18" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19">
@@ -31364,16 +31637,16 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C19" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D19" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="E19" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20">
@@ -31381,16 +31654,16 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C20" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="E20" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21">
@@ -31398,16 +31671,16 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C21" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D21" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E21" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/I2.xlsx
+++ b/Divisions/I2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9598" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9619" uniqueCount="468">
   <si>
     <t>Team</t>
   </si>
@@ -1122,6 +1122,9 @@
     <t>Total Goals</t>
   </si>
   <si>
+    <t>Team against</t>
+  </si>
+  <si>
     <t>Ascoli,W W W D W L</t>
   </si>
   <si>
@@ -1360,6 +1363,66 @@
   </si>
   <si>
     <t>Virtus Entella,3 2 3 1 4 5</t>
+  </si>
+  <si>
+    <t>Ascoli,Monza Spal Empoli Reggina Cittadella Chievo</t>
+  </si>
+  <si>
+    <t>Brescia,Pescara Empoli Spal Vicenza Pisa Monza</t>
+  </si>
+  <si>
+    <t>Chievo,Cittadella Empoli Venezia Cremonese Virtus Entella Ascoli</t>
+  </si>
+  <si>
+    <t>Cittadella,Frosinone Chievo Lecce Virtus Entella Ascoli Venezia</t>
+  </si>
+  <si>
+    <t>Cosenza,Venezia Pisa Pescara Empoli Monza Pordenone</t>
+  </si>
+  <si>
+    <t>Cremonese,Empoli Monza Reggina Chievo Pescara Spal</t>
+  </si>
+  <si>
+    <t>Empoli,Brescia Chievo Ascoli Cosenza Salernitana Lecce</t>
+  </si>
+  <si>
+    <t>Frosinone,Cittadella Pordenone Pisa Spal Vicenza Reggina</t>
+  </si>
+  <si>
+    <t>Lecce,Spal Vicenza Cittadella Monza Reggina Empoli</t>
+  </si>
+  <si>
+    <t>Monza,Ascoli Cremonese Salernitana Lecce Cosenza Brescia</t>
+  </si>
+  <si>
+    <t>Pescara,Brescia Virtus Entella Cosenza Reggiana Cremonese Salernitana</t>
+  </si>
+  <si>
+    <t>Pisa,Cosenza Pordenone Frosinone Venezia Brescia Virtus Entella</t>
+  </si>
+  <si>
+    <t>Pordenone,Frosinone Pisa Reggiana Salernitana Venezia Cosenza</t>
+  </si>
+  <si>
+    <t>Reggiana,Empoli Reggina Pordenone Pescara Spal Vicenza</t>
+  </si>
+  <si>
+    <t>Reggina,Vicenza Reggiana Cremonese Ascoli Lecce Frosinone</t>
+  </si>
+  <si>
+    <t>Salernitana,Virtus Entella Venezia Monza Pordenone Empoli Pescara</t>
+  </si>
+  <si>
+    <t>Spal,Lecce Ascoli Brescia Frosinone Reggiana Cremonese</t>
+  </si>
+  <si>
+    <t>Venezia,Cosenza Salernitana Chievo Pisa Pordenone Cittadella</t>
+  </si>
+  <si>
+    <t>Vicenza,Reggina Lecce Virtus Entella Brescia Frosinone Reggiana</t>
+  </si>
+  <si>
+    <t>Virtus Entella,Salernitana Pescara Vicenza Cittadella Chievo Pisa</t>
   </si>
 </sst>
 </file>
@@ -31342,22 +31405,28 @@
       <c r="E1" t="s">
         <v>366</v>
       </c>
+      <c r="F1" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E2" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="F2" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="3">
@@ -31365,16 +31434,19 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E3" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="F3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="4">
@@ -31382,16 +31454,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E4" t="s">
-        <v>429</v>
+        <v>430</v>
+      </c>
+      <c r="F4" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="5">
@@ -31399,16 +31474,19 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E5" t="s">
-        <v>430</v>
+        <v>431</v>
+      </c>
+      <c r="F5" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="6">
@@ -31416,16 +31494,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E6" t="s">
-        <v>431</v>
+        <v>432</v>
+      </c>
+      <c r="F6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="7">
@@ -31433,16 +31514,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E7" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="F7" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="8">
@@ -31450,16 +31534,19 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E8" t="s">
-        <v>433</v>
+        <v>434</v>
+      </c>
+      <c r="F8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="9">
@@ -31467,16 +31554,19 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E9" t="s">
-        <v>434</v>
+        <v>435</v>
+      </c>
+      <c r="F9" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="10">
@@ -31484,16 +31574,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E10" t="s">
-        <v>435</v>
+        <v>436</v>
+      </c>
+      <c r="F10" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="11">
@@ -31501,16 +31594,19 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E11" t="s">
-        <v>436</v>
+        <v>437</v>
+      </c>
+      <c r="F11" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="12">
@@ -31518,16 +31614,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C12" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E12" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="F12" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="13">
@@ -31535,16 +31634,19 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E13" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="F13" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="14">
@@ -31552,16 +31654,19 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E14" t="s">
-        <v>439</v>
+        <v>440</v>
+      </c>
+      <c r="F14" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="15">
@@ -31569,16 +31674,19 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E15" t="s">
-        <v>440</v>
+        <v>441</v>
+      </c>
+      <c r="F15" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="16">
@@ -31586,16 +31694,19 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D16" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E16" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="F16" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="17">
@@ -31603,16 +31714,19 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C17" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E17" t="s">
-        <v>442</v>
+        <v>443</v>
+      </c>
+      <c r="F17" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="18">
@@ -31620,16 +31734,19 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E18" t="s">
-        <v>443</v>
+        <v>444</v>
+      </c>
+      <c r="F18" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="19">
@@ -31637,16 +31754,19 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D19" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E19" t="s">
-        <v>444</v>
+        <v>445</v>
+      </c>
+      <c r="F19" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="20">
@@ -31654,16 +31774,19 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D20" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E20" t="s">
-        <v>445</v>
+        <v>446</v>
+      </c>
+      <c r="F20" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="21">
@@ -31671,16 +31794,19 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C21" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D21" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E21" t="s">
-        <v>446</v>
+        <v>447</v>
+      </c>
+      <c r="F21" t="s">
+        <v>467</v>
       </c>
     </row>
   </sheetData>

--- a/Divisions/I2.xlsx
+++ b/Divisions/I2.xlsx
@@ -1185,184 +1185,184 @@
     <t>Virtus Entella,L D L L L L</t>
   </si>
   <si>
-    <t>Ascoli,1 2 2 2 2 0</t>
-  </si>
-  <si>
-    <t>Brescia,1 2 3 3 4 2</t>
-  </si>
-  <si>
-    <t>Chievo,0 2 1 1 3 3</t>
-  </si>
-  <si>
-    <t>Cittadella,1 1 3 1 0 1</t>
-  </si>
-  <si>
-    <t>Cosenza,0 0 3 0 0 0</t>
-  </si>
-  <si>
-    <t>Cremonese,2 1 1 1 3 0</t>
-  </si>
-  <si>
-    <t>Empoli,4 2 0 4 0 2</t>
-  </si>
-  <si>
-    <t>Frosinone,1 0 3 1 1 4</t>
-  </si>
-  <si>
-    <t>Lecce,1 2 1 0 2 1</t>
-  </si>
-  <si>
-    <t>Monza,0 2 3 1 3 0</t>
-  </si>
-  <si>
-    <t>Pescara,1 1 0 1 0 0</t>
-  </si>
-  <si>
-    <t>Pisa,3 2 1 2 3 3</t>
-  </si>
-  <si>
-    <t>Pordenone,2 2 0 1 0 2</t>
-  </si>
-  <si>
-    <t>Reggiana,0 1 1 0 1 1</t>
-  </si>
-  <si>
-    <t>Reggina,3 2 1 2 2 0</t>
-  </si>
-  <si>
-    <t>Salernitana,3 2 1 2 2 3</t>
-  </si>
-  <si>
-    <t>Spal,2 1 1 0 2 1</t>
-  </si>
-  <si>
-    <t>Venezia,3 1 3 2 0 1</t>
-  </si>
-  <si>
-    <t>Vicenza,0 1 2 0 1 2</t>
-  </si>
-  <si>
-    <t>Virtus Entella,0 1 1 0 1 2</t>
-  </si>
-  <si>
-    <t>Ascoli,0 1 0 2 0 3</t>
-  </si>
-  <si>
-    <t>Brescia,1 4 1 0 3 0</t>
-  </si>
-  <si>
-    <t>Chievo,1 2 3 1 1 0</t>
-  </si>
-  <si>
-    <t>Cittadella,1 0 1 0 2 1</t>
-  </si>
-  <si>
-    <t>Cosenza,3 3 0 4 3 2</t>
-  </si>
-  <si>
-    <t>Cremonese,2 2 1 1 0 1</t>
-  </si>
-  <si>
-    <t>Empoli,2 2 2 0 2 1</t>
-  </si>
-  <si>
-    <t>Frosinone,1 2 1 0 1 0</t>
-  </si>
-  <si>
-    <t>Lecce,2 1 3 1 2 2</t>
-  </si>
-  <si>
-    <t>Monza,1 1 1 0 0 2</t>
-  </si>
-  <si>
-    <t>Pescara,1 1 3 0 3 3</t>
-  </si>
-  <si>
-    <t>Pisa,0 2 3 2 4 2</t>
-  </si>
-  <si>
-    <t>Pordenone,0 2 1 2 0 0</t>
-  </si>
-  <si>
-    <t>Reggiana,1 2 0 1 2 2</t>
-  </si>
-  <si>
-    <t>Reggina,0 1 1 2 2 4</t>
-  </si>
-  <si>
-    <t>Salernitana,0 1 3 1 0 0</t>
-  </si>
-  <si>
-    <t>Spal,1 2 3 1 1 0</t>
-  </si>
-  <si>
-    <t>Venezia,0 2 1 2 0 1</t>
-  </si>
-  <si>
-    <t>Vicenza,3 2 1 3 1 1</t>
-  </si>
-  <si>
-    <t>Virtus Entella,3 1 2 1 3 3</t>
-  </si>
-  <si>
-    <t>Ascoli,1 3 2 4 2 3</t>
-  </si>
-  <si>
-    <t>Brescia,2 6 4 3 7 2</t>
-  </si>
-  <si>
-    <t>Chievo,1 4 4 2 4 3</t>
-  </si>
-  <si>
-    <t>Cittadella,2 1 4 1 2 2</t>
-  </si>
-  <si>
-    <t>Cosenza,3 3 3 4 3 2</t>
-  </si>
-  <si>
-    <t>Cremonese,4 3 2 2 3 1</t>
-  </si>
-  <si>
-    <t>Empoli,6 4 2 4 2 3</t>
-  </si>
-  <si>
-    <t>Frosinone,2 2 4 1 2 4</t>
-  </si>
-  <si>
-    <t>Lecce,3 3 4 1 4 3</t>
-  </si>
-  <si>
-    <t>Monza,1 3 4 1 3 2</t>
-  </si>
-  <si>
-    <t>Pescara,2 2 3 1 3 3</t>
-  </si>
-  <si>
-    <t>Pisa,3 4 4 4 7 5</t>
-  </si>
-  <si>
-    <t>Pordenone,2 4 1 3 0 2</t>
-  </si>
-  <si>
-    <t>Reggiana,1 3 1 1 3 3</t>
-  </si>
-  <si>
-    <t>Reggina,3 3 2 4 4 4</t>
-  </si>
-  <si>
-    <t>Salernitana,3 3 4 3 2 3</t>
-  </si>
-  <si>
-    <t>Spal,3 3 4 1 3 1</t>
-  </si>
-  <si>
-    <t>Venezia,3 3 4 4 0 2</t>
-  </si>
-  <si>
-    <t>Vicenza,3 3 3 3 2 3</t>
-  </si>
-  <si>
-    <t>Virtus Entella,3 2 3 1 4 5</t>
+    <t>Ascoli,1 2 2 2 2 0,(9)</t>
+  </si>
+  <si>
+    <t>Brescia,1 2 3 3 4 2,(15)</t>
+  </si>
+  <si>
+    <t>Chievo,0 2 1 1 3 3,(10)</t>
+  </si>
+  <si>
+    <t>Cittadella,1 1 3 1 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Cosenza,0 0 3 0 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Cremonese,2 1 1 1 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Empoli,4 2 0 4 0 2,(12)</t>
+  </si>
+  <si>
+    <t>Frosinone,1 0 3 1 1 4,(10)</t>
+  </si>
+  <si>
+    <t>Lecce,1 2 1 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Monza,0 2 3 1 3 0,(9)</t>
+  </si>
+  <si>
+    <t>Pescara,1 1 0 1 0 0,(3)</t>
+  </si>
+  <si>
+    <t>Pisa,3 2 1 2 3 3,(14)</t>
+  </si>
+  <si>
+    <t>Pordenone,2 2 0 1 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Reggiana,0 1 1 0 1 1,(4)</t>
+  </si>
+  <si>
+    <t>Reggina,3 2 1 2 2 0,(10)</t>
+  </si>
+  <si>
+    <t>Salernitana,3 2 1 2 2 3,(13)</t>
+  </si>
+  <si>
+    <t>Spal,2 1 1 0 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Venezia,3 1 3 2 0 1,(10)</t>
+  </si>
+  <si>
+    <t>Vicenza,0 1 2 0 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Virtus Entella,0 1 1 0 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Ascoli,0 1 0 2 0 3,(6)</t>
+  </si>
+  <si>
+    <t>Brescia,1 4 1 0 3 0,(9)</t>
+  </si>
+  <si>
+    <t>Chievo,1 2 3 1 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Cittadella,1 0 1 0 2 1,(5)</t>
+  </si>
+  <si>
+    <t>Cosenza,3 3 0 4 3 2,(15)</t>
+  </si>
+  <si>
+    <t>Cremonese,2 2 1 1 0 1,(7)</t>
+  </si>
+  <si>
+    <t>Empoli,2 2 2 0 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Frosinone,1 2 1 0 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Lecce,2 1 3 1 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Monza,1 1 1 0 0 2,(5)</t>
+  </si>
+  <si>
+    <t>Pescara,1 1 3 0 3 3,(11)</t>
+  </si>
+  <si>
+    <t>Pisa,0 2 3 2 4 2,(13)</t>
+  </si>
+  <si>
+    <t>Pordenone,0 2 1 2 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Reggiana,1 2 0 1 2 2,(8)</t>
+  </si>
+  <si>
+    <t>Reggina,0 1 1 2 2 4,(10)</t>
+  </si>
+  <si>
+    <t>Salernitana,0 1 3 1 0 0,(5)</t>
+  </si>
+  <si>
+    <t>Spal,1 2 3 1 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Venezia,0 2 1 2 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Vicenza,3 2 1 3 1 1,(11)</t>
+  </si>
+  <si>
+    <t>Virtus Entella,3 1 2 1 3 3,(13)</t>
+  </si>
+  <si>
+    <t>Ascoli,1 3 2 4 2 3,(15)</t>
+  </si>
+  <si>
+    <t>Brescia,2 6 4 3 7 2,(24)</t>
+  </si>
+  <si>
+    <t>Chievo,1 4 4 2 4 3,(18)</t>
+  </si>
+  <si>
+    <t>Cittadella,2 1 4 1 2 2,(12)</t>
+  </si>
+  <si>
+    <t>Cosenza,3 3 3 4 3 2,(18)</t>
+  </si>
+  <si>
+    <t>Cremonese,4 3 2 2 3 1,(15)</t>
+  </si>
+  <si>
+    <t>Empoli,6 4 2 4 2 3,(21)</t>
+  </si>
+  <si>
+    <t>Frosinone,2 2 4 1 2 4,(15)</t>
+  </si>
+  <si>
+    <t>Lecce,3 3 4 1 4 3,(18)</t>
+  </si>
+  <si>
+    <t>Monza,1 3 4 1 3 2,(14)</t>
+  </si>
+  <si>
+    <t>Pescara,2 2 3 1 3 3,(14)</t>
+  </si>
+  <si>
+    <t>Pisa,3 4 4 4 7 5,(27)</t>
+  </si>
+  <si>
+    <t>Pordenone,2 4 1 3 0 2,(12)</t>
+  </si>
+  <si>
+    <t>Reggiana,1 3 1 1 3 3,(12)</t>
+  </si>
+  <si>
+    <t>Reggina,3 3 2 4 4 4,(20)</t>
+  </si>
+  <si>
+    <t>Salernitana,3 3 4 3 2 3,(18)</t>
+  </si>
+  <si>
+    <t>Spal,3 3 4 1 3 1,(15)</t>
+  </si>
+  <si>
+    <t>Venezia,3 3 4 4 0 2,(16)</t>
+  </si>
+  <si>
+    <t>Vicenza,3 3 3 3 2 3,(17)</t>
+  </si>
+  <si>
+    <t>Virtus Entella,3 2 3 1 4 5,(18)</t>
   </si>
   <si>
     <t>Ascoli,Monza Spal Empoli Reggina Cittadella Chievo</t>

--- a/Divisions/I2.xlsx
+++ b/Divisions/I2.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
-    <sheet name="Form" r:id="rId4" sheetId="2"/>
-    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
-    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
-    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
-    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
-    <sheet name="L6" r:id="rId10" sheetId="8"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
+    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
+    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
+    <sheet name="L6" sheetId="8" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1428,11 +1435,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1444,7 +1450,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1462,19 +1468,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1535,7 +1816,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +1848,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1599,7 +1880,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1631,7 +1912,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1663,7 +1944,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1695,7 +1976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1727,7 +2008,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1759,7 +2040,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1791,7 +2072,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1823,7 +2104,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1855,7 +2136,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1887,7 +2168,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1919,7 +2200,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1951,7 +2232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1983,7 +2264,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2015,7 +2296,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2047,7 +2328,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2079,7 +2360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2111,7 +2392,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2144,20 +2425,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CX21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -2462,7 +2745,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2770,7 +3053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3078,7 +3361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3386,7 +3669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3694,7 +3977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4002,7 +4285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4310,7 +4593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -4618,7 +4901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -4926,7 +5209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -5234,7 +5517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -5542,7 +5825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5850,7 +6133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -6158,7 +6441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -6466,7 +6749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -6774,7 +7057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -7082,7 +7365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -7390,7 +7673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -7698,7 +7981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -8006,7 +8289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -8314,7 +8597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -8623,20 +8906,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CX21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -8941,7 +9224,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -9249,7 +9532,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -9557,7 +9840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -9865,7 +10148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -10173,7 +10456,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -10481,7 +10764,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -10789,7 +11072,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -11097,7 +11380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -11405,7 +11688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -11713,7 +11996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -12021,7 +12304,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -12329,7 +12612,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -12637,7 +12920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -12945,7 +13228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -13253,7 +13536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -13561,7 +13844,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -13869,7 +14152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -14177,7 +14460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -14485,7 +14768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -14793,7 +15076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -15102,20 +15385,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CX21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -15420,7 +15702,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -15728,7 +16010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -16036,7 +16318,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -16344,7 +16626,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -16652,7 +16934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -16960,7 +17242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -17268,7 +17550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -17576,7 +17858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -17884,7 +18166,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -18192,7 +18474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -18500,7 +18782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -18808,7 +19090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -19116,7 +19398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -19424,7 +19706,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -19732,7 +20014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -20040,7 +20322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -20348,7 +20630,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -20656,7 +20938,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -20964,7 +21246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -21272,7 +21554,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -21581,20 +21863,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CX21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -21899,7 +22180,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -22207,7 +22488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -22515,7 +22796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -22823,7 +23104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -23131,7 +23412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -23439,7 +23720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -23747,7 +24028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -24055,7 +24336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -24363,7 +24644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -24671,7 +24952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -24979,7 +25260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -25287,7 +25568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -25595,7 +25876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -25903,7 +26184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -26211,7 +26492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -26519,7 +26800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -26827,7 +27108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -27135,7 +27416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -27443,7 +27724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -27751,7 +28032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -28060,20 +28341,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -28150,7 +28430,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -28230,7 +28510,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -28310,7 +28590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -28390,7 +28670,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -28470,7 +28750,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -28550,7 +28830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -28630,7 +28910,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -28710,7 +28990,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -28790,7 +29070,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -28870,7 +29150,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -28950,7 +29230,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -29030,7 +29310,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -29110,7 +29390,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -29190,7 +29470,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -29270,7 +29550,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -29350,7 +29630,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -29430,7 +29710,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -29510,7 +29790,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -29590,7 +29870,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -29670,7 +29950,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -29751,20 +30031,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>240</v>
       </c>
@@ -29838,36 +30119,36 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>168.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="H2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>37.0</v>
+      <c r="C2">
+        <v>68</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>168</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="H2">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>263</v>
@@ -29878,32 +30159,32 @@
       <c r="M2" t="s">
         <v>301</v>
       </c>
-      <c r="N2" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="N2">
+        <v>38</v>
+      </c>
+      <c r="O2">
+        <v>100</v>
+      </c>
+      <c r="P2">
+        <v>92</v>
+      </c>
+      <c r="Q2">
+        <v>192</v>
+      </c>
+      <c r="R2">
+        <v>19</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>29</v>
+      </c>
+      <c r="U2">
         <v>1.5263157894736843</v>
       </c>
-      <c r="V2" t="n">
-        <v>48.0</v>
+      <c r="V2">
+        <v>48</v>
       </c>
       <c r="W2" t="s">
         <v>282</v>
@@ -29915,36 +30196,36 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.894736842105263</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="C3">
+        <v>92</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>152</v>
+      </c>
+      <c r="F3">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>1.8947368421052631</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
         <v>1.3157894736842106</v>
       </c>
-      <c r="J3" t="n">
-        <v>61.0</v>
+      <c r="J3">
+        <v>61</v>
       </c>
       <c r="K3" t="s">
         <v>264</v>
@@ -29955,32 +30236,32 @@
       <c r="M3" t="s">
         <v>302</v>
       </c>
-      <c r="N3" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>195.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="N3">
+        <v>38</v>
+      </c>
+      <c r="O3">
+        <v>88</v>
+      </c>
+      <c r="P3">
+        <v>107</v>
+      </c>
+      <c r="Q3">
+        <v>195</v>
+      </c>
+      <c r="R3">
+        <v>27</v>
+      </c>
+      <c r="S3">
         <v>1.4210526315789473</v>
       </c>
-      <c r="T3" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="T3">
+        <v>26</v>
+      </c>
+      <c r="U3">
         <v>1.368421052631579</v>
       </c>
-      <c r="V3" t="n">
-        <v>53.0</v>
+      <c r="V3">
+        <v>53</v>
       </c>
       <c r="W3" t="s">
         <v>317</v>
@@ -29992,36 +30273,36 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>152</v>
+      </c>
+      <c r="F4">
+        <v>29</v>
+      </c>
+      <c r="G4">
         <v>1.5263157894736843</v>
       </c>
-      <c r="H4" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.105263157894737</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50.0</v>
+      <c r="H4">
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <v>1.1052631578947369</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
       </c>
       <c r="K4" t="s">
         <v>265</v>
@@ -30032,32 +30313,32 @@
       <c r="M4" t="s">
         <v>303</v>
       </c>
-      <c r="N4" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="T4" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="N4">
+        <v>38</v>
+      </c>
+      <c r="O4">
+        <v>58</v>
+      </c>
+      <c r="P4">
+        <v>67</v>
+      </c>
+      <c r="Q4">
+        <v>125</v>
+      </c>
+      <c r="R4">
+        <v>14</v>
+      </c>
+      <c r="S4">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="T4">
+        <v>23</v>
+      </c>
+      <c r="U4">
         <v>1.2105263157894737</v>
       </c>
-      <c r="V4" t="n">
-        <v>37.0</v>
+      <c r="V4">
+        <v>37</v>
       </c>
       <c r="W4" t="s">
         <v>318</v>
@@ -30069,36 +30350,36 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>181.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="C5">
+        <v>93</v>
+      </c>
+      <c r="D5">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <v>181</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
         <v>1.3157894736842106</v>
       </c>
-      <c r="H5" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5">
+        <v>23</v>
+      </c>
+      <c r="I5">
         <v>1.2105263157894737</v>
       </c>
-      <c r="J5" t="n">
-        <v>48.0</v>
+      <c r="J5">
+        <v>48</v>
       </c>
       <c r="K5" t="s">
         <v>266</v>
@@ -30109,32 +30390,32 @@
       <c r="M5" t="s">
         <v>304</v>
       </c>
-      <c r="N5" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>144.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="T5" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.105263157894737</v>
-      </c>
-      <c r="V5" t="n">
-        <v>35.0</v>
+      <c r="N5">
+        <v>38</v>
+      </c>
+      <c r="O5">
+        <v>70</v>
+      </c>
+      <c r="P5">
+        <v>74</v>
+      </c>
+      <c r="Q5">
+        <v>144</v>
+      </c>
+      <c r="R5">
+        <v>14</v>
+      </c>
+      <c r="S5">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="T5">
+        <v>21</v>
+      </c>
+      <c r="U5">
+        <v>1.1052631578947369</v>
+      </c>
+      <c r="V5">
+        <v>35</v>
       </c>
       <c r="W5" t="s">
         <v>319</v>
@@ -30146,36 +30427,36 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>62.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="J6" t="n">
-        <v>29.0</v>
+      <c r="C6">
+        <v>74</v>
+      </c>
+      <c r="D6">
+        <v>62</v>
+      </c>
+      <c r="E6">
+        <v>136</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>0.73684210526315785</v>
+      </c>
+      <c r="J6">
+        <v>29</v>
       </c>
       <c r="K6" t="s">
         <v>267</v>
@@ -30186,32 +30467,32 @@
       <c r="M6" t="s">
         <v>305</v>
       </c>
-      <c r="N6" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>116.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>221.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="N6">
+        <v>38</v>
+      </c>
+      <c r="O6">
+        <v>116</v>
+      </c>
+      <c r="P6">
+        <v>105</v>
+      </c>
+      <c r="Q6">
+        <v>221</v>
+      </c>
+      <c r="R6">
+        <v>20</v>
+      </c>
+      <c r="S6">
         <v>1.0526315789473684</v>
       </c>
-      <c r="T6" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="T6">
+        <v>27</v>
+      </c>
+      <c r="U6">
         <v>1.4210526315789473</v>
       </c>
-      <c r="V6" t="n">
-        <v>47.0</v>
+      <c r="V6">
+        <v>47</v>
       </c>
       <c r="W6" t="s">
         <v>320</v>
@@ -30223,36 +30504,36 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>189.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="C7">
+        <v>99</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>189</v>
+      </c>
+      <c r="F7">
+        <v>27</v>
+      </c>
+      <c r="G7">
         <v>1.4210526315789473</v>
       </c>
-      <c r="H7" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>46.0</v>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>46</v>
       </c>
       <c r="K7" t="s">
         <v>268</v>
@@ -30263,32 +30544,32 @@
       <c r="M7" t="s">
         <v>306</v>
       </c>
-      <c r="N7" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>145.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S7" t="n">
+      <c r="N7">
+        <v>38</v>
+      </c>
+      <c r="O7">
+        <v>77</v>
+      </c>
+      <c r="P7">
+        <v>68</v>
+      </c>
+      <c r="Q7">
+        <v>145</v>
+      </c>
+      <c r="R7">
+        <v>22</v>
+      </c>
+      <c r="S7">
         <v>1.1578947368421053</v>
       </c>
-      <c r="T7" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="U7" t="n">
+      <c r="T7">
+        <v>22</v>
+      </c>
+      <c r="U7">
         <v>1.1578947368421053</v>
       </c>
-      <c r="V7" t="n">
-        <v>44.0</v>
+      <c r="V7">
+        <v>44</v>
       </c>
       <c r="W7" t="s">
         <v>295</v>
@@ -30300,36 +30581,36 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>215.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="C8">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>108</v>
+      </c>
+      <c r="E8">
+        <v>215</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8">
         <v>1.5789473684210527</v>
       </c>
-      <c r="J8" t="n">
-        <v>68.0</v>
+      <c r="J8">
+        <v>68</v>
       </c>
       <c r="K8" t="s">
         <v>269</v>
@@ -30340,32 +30621,32 @@
       <c r="M8" t="s">
         <v>307</v>
       </c>
-      <c r="N8" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>128.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="T8" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="N8">
+        <v>38</v>
+      </c>
+      <c r="O8">
+        <v>61</v>
+      </c>
+      <c r="P8">
+        <v>67</v>
+      </c>
+      <c r="Q8">
+        <v>128</v>
+      </c>
+      <c r="R8">
+        <v>15</v>
+      </c>
+      <c r="S8">
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="T8">
+        <v>20</v>
+      </c>
+      <c r="U8">
         <v>1.0526315789473684</v>
       </c>
-      <c r="V8" t="n">
-        <v>35.0</v>
+      <c r="V8">
+        <v>35</v>
       </c>
       <c r="W8" t="s">
         <v>321</v>
@@ -30377,36 +30658,36 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.8421052631578947</v>
-      </c>
-      <c r="H9" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="C9">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <v>67</v>
+      </c>
+      <c r="E9">
+        <v>146</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="H9">
+        <v>22</v>
+      </c>
+      <c r="I9">
         <v>1.1578947368421053</v>
       </c>
-      <c r="J9" t="n">
-        <v>38.0</v>
+      <c r="J9">
+        <v>38</v>
       </c>
       <c r="K9" t="s">
         <v>270</v>
@@ -30417,32 +30698,32 @@
       <c r="M9" t="s">
         <v>308</v>
       </c>
-      <c r="N9" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.105263157894737</v>
-      </c>
-      <c r="T9" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.105263157894737</v>
-      </c>
-      <c r="V9" t="n">
-        <v>42.0</v>
+      <c r="N9">
+        <v>38</v>
+      </c>
+      <c r="O9">
+        <v>80</v>
+      </c>
+      <c r="P9">
+        <v>70</v>
+      </c>
+      <c r="Q9">
+        <v>150</v>
+      </c>
+      <c r="R9">
+        <v>21</v>
+      </c>
+      <c r="S9">
+        <v>1.1052631578947369</v>
+      </c>
+      <c r="T9">
+        <v>21</v>
+      </c>
+      <c r="U9">
+        <v>1.1052631578947369</v>
+      </c>
+      <c r="V9">
+        <v>42</v>
       </c>
       <c r="W9" t="s">
         <v>322</v>
@@ -30454,36 +30735,36 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>197.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.894736842105263</v>
-      </c>
-      <c r="H10" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="C10">
+        <v>99</v>
+      </c>
+      <c r="D10">
+        <v>98</v>
+      </c>
+      <c r="E10">
+        <v>197</v>
+      </c>
+      <c r="F10">
+        <v>36</v>
+      </c>
+      <c r="G10">
+        <v>1.8947368421052631</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
         <v>1.6842105263157894</v>
       </c>
-      <c r="J10" t="n">
-        <v>68.0</v>
+      <c r="J10">
+        <v>68</v>
       </c>
       <c r="K10" t="s">
         <v>271</v>
@@ -30494,32 +30775,32 @@
       <c r="M10" t="s">
         <v>309</v>
       </c>
-      <c r="N10" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="N10">
+        <v>38</v>
+      </c>
+      <c r="O10">
+        <v>78</v>
+      </c>
+      <c r="P10">
+        <v>70</v>
+      </c>
+      <c r="Q10">
+        <v>148</v>
+      </c>
+      <c r="R10">
+        <v>28</v>
+      </c>
+      <c r="S10">
         <v>1.4736842105263157</v>
       </c>
-      <c r="T10" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>47.0</v>
+      <c r="T10">
+        <v>19</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>47</v>
       </c>
       <c r="W10" t="s">
         <v>323</v>
@@ -30531,36 +30812,36 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>176.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="C11">
+        <v>97</v>
+      </c>
+      <c r="D11">
+        <v>79</v>
+      </c>
+      <c r="E11">
+        <v>176</v>
+      </c>
+      <c r="F11">
+        <v>27</v>
+      </c>
+      <c r="G11">
         <v>1.4210526315789473</v>
       </c>
-      <c r="H11" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11">
+        <v>24</v>
+      </c>
+      <c r="I11">
         <v>1.263157894736842</v>
       </c>
-      <c r="J11" t="n">
-        <v>51.0</v>
+      <c r="J11">
+        <v>51</v>
       </c>
       <c r="K11" t="s">
         <v>272</v>
@@ -30571,32 +30852,32 @@
       <c r="M11" t="s">
         <v>310</v>
       </c>
-      <c r="N11" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>121.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.8421052631578947</v>
-      </c>
-      <c r="T11" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="V11" t="n">
-        <v>33.0</v>
+      <c r="N11">
+        <v>38</v>
+      </c>
+      <c r="O11">
+        <v>51</v>
+      </c>
+      <c r="P11">
+        <v>70</v>
+      </c>
+      <c r="Q11">
+        <v>121</v>
+      </c>
+      <c r="R11">
+        <v>16</v>
+      </c>
+      <c r="S11">
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="T11">
+        <v>17</v>
+      </c>
+      <c r="U11">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="V11">
+        <v>33</v>
       </c>
       <c r="W11" t="s">
         <v>324</v>
@@ -30608,36 +30889,36 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>135.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="H12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="J12" t="n">
-        <v>29.0</v>
+      <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>135</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="J12">
+        <v>29</v>
       </c>
       <c r="K12" t="s">
         <v>273</v>
@@ -30648,32 +30929,32 @@
       <c r="M12" t="s">
         <v>311</v>
       </c>
-      <c r="N12" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="N12">
+        <v>38</v>
+      </c>
+      <c r="O12">
+        <v>70</v>
+      </c>
+      <c r="P12">
+        <v>82</v>
+      </c>
+      <c r="Q12">
+        <v>152</v>
+      </c>
+      <c r="R12">
+        <v>29</v>
+      </c>
+      <c r="S12">
         <v>1.5263157894736843</v>
       </c>
-      <c r="T12" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="T12">
+        <v>31</v>
+      </c>
+      <c r="U12">
         <v>1.631578947368421</v>
       </c>
-      <c r="V12" t="n">
-        <v>60.0</v>
+      <c r="V12">
+        <v>60</v>
       </c>
       <c r="W12" t="s">
         <v>325</v>
@@ -30685,36 +30966,36 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>159.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="C13">
+        <v>86</v>
+      </c>
+      <c r="D13">
+        <v>73</v>
+      </c>
+      <c r="E13">
+        <v>159</v>
+      </c>
+      <c r="F13">
+        <v>26</v>
+      </c>
+      <c r="G13">
         <v>1.368421052631579</v>
       </c>
-      <c r="H13" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13">
+        <v>28</v>
+      </c>
+      <c r="I13">
         <v>1.4736842105263157</v>
       </c>
-      <c r="J13" t="n">
-        <v>54.0</v>
+      <c r="J13">
+        <v>54</v>
       </c>
       <c r="K13" t="s">
         <v>274</v>
@@ -30725,32 +31006,32 @@
       <c r="M13" t="s">
         <v>312</v>
       </c>
-      <c r="N13" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>66.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="N13">
+        <v>38</v>
+      </c>
+      <c r="O13">
+        <v>66</v>
+      </c>
+      <c r="P13">
+        <v>97</v>
+      </c>
+      <c r="Q13">
+        <v>163</v>
+      </c>
+      <c r="R13">
+        <v>19</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>40</v>
+      </c>
+      <c r="U13">
         <v>2.1052631578947367</v>
       </c>
-      <c r="V13" t="n">
-        <v>59.0</v>
+      <c r="V13">
+        <v>59</v>
       </c>
       <c r="W13" t="s">
         <v>326</v>
@@ -30762,36 +31043,36 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>142.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="C14">
+        <v>81</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+      <c r="E14">
+        <v>142</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+      <c r="G14">
         <v>1.4210526315789473</v>
       </c>
-      <c r="H14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="J14" t="n">
-        <v>40.0</v>
+      <c r="H14">
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
       </c>
       <c r="K14" t="s">
         <v>275</v>
@@ -30802,32 +31083,32 @@
       <c r="M14" t="s">
         <v>313</v>
       </c>
-      <c r="N14" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U14" t="n">
+      <c r="N14">
+        <v>38</v>
+      </c>
+      <c r="O14">
+        <v>78</v>
+      </c>
+      <c r="P14">
+        <v>71</v>
+      </c>
+      <c r="Q14">
+        <v>149</v>
+      </c>
+      <c r="R14">
+        <v>19</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>20</v>
+      </c>
+      <c r="U14">
         <v>1.0526315789473684</v>
       </c>
-      <c r="V14" t="n">
-        <v>39.0</v>
+      <c r="V14">
+        <v>39</v>
       </c>
       <c r="W14" t="s">
         <v>327</v>
@@ -30839,15 +31120,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" t="n">
-        <v>63.0</v>
+      <c r="C15">
+        <v>63</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -30855,20 +31136,20 @@
       <c r="E15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F15" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="J15" t="n">
-        <v>31.0</v>
+      <c r="F15">
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="J15">
+        <v>31</v>
       </c>
       <c r="K15" t="s">
         <v>276</v>
@@ -30879,11 +31160,11 @@
       <c r="M15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N15" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>92.0</v>
+      <c r="N15">
+        <v>38</v>
+      </c>
+      <c r="O15">
+        <v>92</v>
       </c>
       <c r="P15" t="e">
         <v>#N/A</v>
@@ -30891,20 +31172,20 @@
       <c r="Q15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R15" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="R15">
+        <v>23</v>
+      </c>
+      <c r="S15">
         <v>1.2105263157894737</v>
       </c>
-      <c r="T15" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="T15">
+        <v>34</v>
+      </c>
+      <c r="U15">
         <v>1.7894736842105263</v>
       </c>
-      <c r="V15" t="n">
-        <v>57.0</v>
+      <c r="V15">
+        <v>57</v>
       </c>
       <c r="W15" t="s">
         <v>281</v>
@@ -30916,36 +31197,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>156.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="C16">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <v>156</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
         <v>1.0526315789473684</v>
       </c>
-      <c r="H16" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16">
+        <v>22</v>
+      </c>
+      <c r="I16">
         <v>1.1578947368421053</v>
       </c>
-      <c r="J16" t="n">
-        <v>42.0</v>
+      <c r="J16">
+        <v>42</v>
       </c>
       <c r="K16" t="s">
         <v>277</v>
@@ -30956,32 +31237,32 @@
       <c r="M16" t="s">
         <v>284</v>
       </c>
-      <c r="N16" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>155.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="N16">
+        <v>38</v>
+      </c>
+      <c r="O16">
+        <v>69</v>
+      </c>
+      <c r="P16">
+        <v>86</v>
+      </c>
+      <c r="Q16">
+        <v>155</v>
+      </c>
+      <c r="R16">
+        <v>22</v>
+      </c>
+      <c r="S16">
         <v>1.1578947368421053</v>
       </c>
-      <c r="T16" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="T16">
+        <v>23</v>
+      </c>
+      <c r="U16">
         <v>1.2105263157894737</v>
       </c>
-      <c r="V16" t="n">
-        <v>45.0</v>
+      <c r="V16">
+        <v>45</v>
       </c>
       <c r="W16" t="s">
         <v>328</v>
@@ -30993,7 +31274,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -31003,26 +31284,26 @@
       <c r="C17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D17" t="n">
-        <v>63.0</v>
+      <c r="D17">
+        <v>63</v>
       </c>
       <c r="E17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F17" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="F17">
+        <v>26</v>
+      </c>
+      <c r="G17">
         <v>1.368421052631579</v>
       </c>
-      <c r="H17" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
         <v>1.0526315789473684</v>
       </c>
-      <c r="J17" t="n">
-        <v>46.0</v>
+      <c r="J17">
+        <v>46</v>
       </c>
       <c r="K17" t="e">
         <v>#N/A</v>
@@ -31033,32 +31314,32 @@
       <c r="M17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N17" t="n">
-        <v>38.0</v>
+      <c r="N17">
+        <v>38</v>
       </c>
       <c r="O17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P17" t="n">
-        <v>91.0</v>
+      <c r="P17">
+        <v>91</v>
       </c>
       <c r="Q17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R17" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="T17" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.105263157894737</v>
-      </c>
-      <c r="V17" t="n">
-        <v>34.0</v>
+      <c r="R17">
+        <v>13</v>
+      </c>
+      <c r="S17">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="T17">
+        <v>21</v>
+      </c>
+      <c r="U17">
+        <v>1.1052631578947369</v>
+      </c>
+      <c r="V17">
+        <v>34</v>
       </c>
       <c r="W17" t="e">
         <v>#N/A</v>
@@ -31070,36 +31351,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="C18">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>64</v>
+      </c>
+      <c r="E18">
+        <v>134</v>
+      </c>
+      <c r="F18">
+        <v>25</v>
+      </c>
+      <c r="G18">
         <v>1.3157894736842106</v>
       </c>
-      <c r="H18" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>44.0</v>
+      <c r="H18">
+        <v>19</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>44</v>
       </c>
       <c r="K18" t="s">
         <v>278</v>
@@ -31110,32 +31391,32 @@
       <c r="M18" t="s">
         <v>289</v>
       </c>
-      <c r="N18" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>178.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="N18">
+        <v>38</v>
+      </c>
+      <c r="O18">
+        <v>78</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>178</v>
+      </c>
+      <c r="R18">
+        <v>19</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>23</v>
+      </c>
+      <c r="U18">
         <v>1.2105263157894737</v>
       </c>
-      <c r="V18" t="n">
-        <v>42.0</v>
+      <c r="V18">
+        <v>42</v>
       </c>
       <c r="W18" t="s">
         <v>327</v>
@@ -31147,36 +31428,36 @@
         <v>361</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>201.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="C19">
+        <v>107</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>201</v>
+      </c>
+      <c r="F19">
+        <v>28</v>
+      </c>
+      <c r="G19">
         <v>1.4736842105263157</v>
       </c>
-      <c r="H19" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H19">
+        <v>25</v>
+      </c>
+      <c r="I19">
         <v>1.3157894736842106</v>
       </c>
-      <c r="J19" t="n">
-        <v>53.0</v>
+      <c r="J19">
+        <v>53</v>
       </c>
       <c r="K19" t="s">
         <v>279</v>
@@ -31187,32 +31468,32 @@
       <c r="M19" t="s">
         <v>314</v>
       </c>
-      <c r="N19" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="N19">
+        <v>38</v>
+      </c>
+      <c r="O19">
+        <v>61</v>
+      </c>
+      <c r="P19">
+        <v>68</v>
+      </c>
+      <c r="Q19">
+        <v>129</v>
+      </c>
+      <c r="R19">
+        <v>19</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
+      </c>
+      <c r="U19">
         <v>1.0526315789473684</v>
       </c>
-      <c r="V19" t="n">
-        <v>39.0</v>
+      <c r="V19">
+        <v>39</v>
       </c>
       <c r="W19" t="s">
         <v>329</v>
@@ -31224,36 +31505,36 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" t="n">
-        <v>82.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>159.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="C20">
+        <v>82</v>
+      </c>
+      <c r="D20">
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>159</v>
+      </c>
+      <c r="F20">
+        <v>22</v>
+      </c>
+      <c r="G20">
         <v>1.1578947368421053</v>
       </c>
-      <c r="H20" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="H20">
+        <v>26</v>
+      </c>
+      <c r="I20">
         <v>1.368421052631579</v>
       </c>
-      <c r="J20" t="n">
-        <v>48.0</v>
+      <c r="J20">
+        <v>48</v>
       </c>
       <c r="K20" t="s">
         <v>280</v>
@@ -31264,32 +31545,32 @@
       <c r="M20" t="s">
         <v>315</v>
       </c>
-      <c r="N20" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>146.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="S20" t="n">
+      <c r="N20">
+        <v>38</v>
+      </c>
+      <c r="O20">
+        <v>67</v>
+      </c>
+      <c r="P20">
+        <v>79</v>
+      </c>
+      <c r="Q20">
+        <v>146</v>
+      </c>
+      <c r="R20">
+        <v>24</v>
+      </c>
+      <c r="S20">
         <v>1.263157894736842</v>
       </c>
-      <c r="T20" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="T20">
+        <v>29</v>
+      </c>
+      <c r="U20">
         <v>1.5263157894736843</v>
       </c>
-      <c r="V20" t="n">
-        <v>53.0</v>
+      <c r="V20">
+        <v>53</v>
       </c>
       <c r="W20" t="s">
         <v>330</v>
@@ -31301,36 +31582,36 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="n">
-        <v>68.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="H21" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.6842105263157895</v>
-      </c>
-      <c r="J21" t="n">
-        <v>30.0</v>
+      <c r="C21">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>119</v>
+      </c>
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>0.89473684210526316</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="J21">
+        <v>30</v>
       </c>
       <c r="K21" t="s">
         <v>281</v>
@@ -31341,32 +31622,32 @@
       <c r="M21" t="s">
         <v>316</v>
       </c>
-      <c r="N21" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="N21">
+        <v>38</v>
+      </c>
+      <c r="O21">
+        <v>94</v>
+      </c>
+      <c r="P21">
+        <v>98</v>
+      </c>
+      <c r="Q21">
+        <v>192</v>
+      </c>
+      <c r="R21">
+        <v>35</v>
+      </c>
+      <c r="S21">
         <v>1.8421052631578947</v>
       </c>
-      <c r="T21" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U21" t="n">
+      <c r="T21">
+        <v>29</v>
+      </c>
+      <c r="U21">
         <v>1.5263157894736843</v>
       </c>
-      <c r="V21" t="n">
-        <v>64.0</v>
+      <c r="V21">
+        <v>64</v>
       </c>
       <c r="W21" t="s">
         <v>331</v>
@@ -31379,20 +31660,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="71.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>363</v>
       </c>
@@ -31409,7 +31698,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -31429,7 +31718,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -31449,7 +31738,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -31469,7 +31758,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -31489,7 +31778,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -31509,7 +31798,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -31529,7 +31818,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -31549,7 +31838,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -31569,7 +31858,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -31589,7 +31878,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -31609,7 +31898,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -31629,7 +31918,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -31649,7 +31938,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -31669,7 +31958,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -31689,7 +31978,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -31709,7 +31998,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -31729,7 +32018,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -31749,7 +32038,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -31769,7 +32058,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -31789,7 +32078,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -31810,6 +32099,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Divisions/I2.xlsx
+++ b/Divisions/I2.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\Rsoccer\Divisions\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11280" activeTab="7"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" sheetId="1" r:id="rId1"/>
-    <sheet name="Form" sheetId="2" r:id="rId2"/>
-    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
-    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
-    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
-    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
-    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
-    <sheet name="L6" sheetId="8" r:id="rId8"/>
+    <sheet name="Table" r:id="rId3" sheetId="1"/>
+    <sheet name="Form" r:id="rId4" sheetId="2"/>
+    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
+    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
+    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
+    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
+    <sheet name="L6" r:id="rId10" sheetId="8"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1435,10 +1428,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1450,7 +1444,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1468,294 +1462,19 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1784,7 +1503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1816,7 +1535,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1848,7 +1567,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1880,7 +1599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1912,7 +1631,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1944,7 +1663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1976,7 +1695,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2008,7 +1727,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2040,7 +1759,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2072,7 +1791,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2104,7 +1823,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2136,7 +1855,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2168,7 +1887,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2200,7 +1919,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2232,7 +1951,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2264,7 +1983,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2296,7 +2015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2328,7 +2047,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2360,7 +2079,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2392,7 +2111,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2425,22 +2144,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -2745,7 +2462,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -3053,7 +2770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3361,7 +3078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -3669,7 +3386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -3977,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4285,7 +4002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -4593,7 +4310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -4901,7 +4618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -5209,7 +4926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -5517,7 +5234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -5825,7 +5542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -6133,7 +5850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -6441,7 +6158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -6749,7 +6466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -7057,7 +6774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -7365,7 +7082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -7673,7 +7390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -7981,7 +7698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -8289,7 +8006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -8597,7 +8314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -8906,20 +8623,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -9224,7 +8941,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -9532,7 +9249,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -9840,7 +9557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -10148,7 +9865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -10456,7 +10173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -10764,7 +10481,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -11072,7 +10789,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -11380,7 +11097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -11688,7 +11405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -11996,7 +11713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -12304,7 +12021,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -12612,7 +12329,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -12920,7 +12637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -13228,7 +12945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -13536,7 +13253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -13844,7 +13561,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -14152,7 +13869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -14460,7 +14177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -14768,7 +14485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -15076,7 +14793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -15385,19 +15102,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -15702,7 +15420,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -16010,7 +15728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -16318,7 +16036,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -16626,7 +16344,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -16934,7 +16652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -17242,7 +16960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -17550,7 +17268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -17858,7 +17576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -18166,7 +17884,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -18474,7 +18192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -18782,7 +18500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -19090,7 +18808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -19398,7 +19116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -19706,7 +19424,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -20014,7 +19732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -20322,7 +20040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -20630,7 +20348,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -20938,7 +20656,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -21246,7 +20964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -21554,7 +21272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -21863,19 +21581,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CX21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>91</v>
       </c>
@@ -22180,7 +21899,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -22488,7 +22207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -22796,7 +22515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -23104,7 +22823,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -23412,7 +23131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -23720,7 +23439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -24028,7 +23747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -24336,7 +24055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -24644,7 +24363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -24952,7 +24671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -25260,7 +24979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -25568,7 +25287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -25876,7 +25595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -26184,7 +25903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -26492,7 +26211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -26800,7 +26519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -27108,7 +26827,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -27416,7 +27135,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -27724,7 +27443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -28032,7 +27751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -28341,19 +28060,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -28430,7 +28150,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -28510,7 +28230,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -28590,7 +28310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -28670,7 +28390,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -28750,7 +28470,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -28830,7 +28550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -28910,7 +28630,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -28990,7 +28710,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -29070,7 +28790,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -29150,7 +28870,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -29230,7 +28950,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -29310,7 +29030,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -29390,7 +29110,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -29470,7 +29190,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -29550,7 +29270,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -29630,7 +29350,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -29710,7 +29430,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -29790,7 +29510,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -29870,7 +29590,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -29950,7 +29670,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -30031,21 +29751,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>240</v>
       </c>
@@ -30119,36 +29838,36 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
-      <c r="C2">
-        <v>68</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>168</v>
-      </c>
-      <c r="F2">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="H2">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>37</v>
+      <c r="C2" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>37.0</v>
       </c>
       <c r="K2" t="s">
         <v>263</v>
@@ -30159,32 +29878,32 @@
       <c r="M2" t="s">
         <v>301</v>
       </c>
-      <c r="N2">
-        <v>38</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-      <c r="P2">
-        <v>92</v>
-      </c>
-      <c r="Q2">
-        <v>192</v>
-      </c>
-      <c r="R2">
-        <v>19</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>29</v>
-      </c>
-      <c r="U2">
+      <c r="N2" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.5263157894736843</v>
       </c>
-      <c r="V2">
-        <v>48</v>
+      <c r="V2" t="n">
+        <v>48.0</v>
       </c>
       <c r="W2" t="s">
         <v>282</v>
@@ -30196,36 +29915,36 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3">
-        <v>92</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>152</v>
-      </c>
-      <c r="F3">
-        <v>36</v>
-      </c>
-      <c r="G3">
-        <v>1.8947368421052631</v>
-      </c>
-      <c r="H3">
-        <v>25</v>
-      </c>
-      <c r="I3">
+      <c r="C3" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.894736842105263</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1.3157894736842106</v>
       </c>
-      <c r="J3">
-        <v>61</v>
+      <c r="J3" t="n">
+        <v>61.0</v>
       </c>
       <c r="K3" t="s">
         <v>264</v>
@@ -30236,32 +29955,32 @@
       <c r="M3" t="s">
         <v>302</v>
       </c>
-      <c r="N3">
-        <v>38</v>
-      </c>
-      <c r="O3">
-        <v>88</v>
-      </c>
-      <c r="P3">
-        <v>107</v>
-      </c>
-      <c r="Q3">
-        <v>195</v>
-      </c>
-      <c r="R3">
-        <v>27</v>
-      </c>
-      <c r="S3">
+      <c r="N3" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.4210526315789473</v>
       </c>
-      <c r="T3">
-        <v>26</v>
-      </c>
-      <c r="U3">
+      <c r="T3" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.368421052631579</v>
       </c>
-      <c r="V3">
-        <v>53</v>
+      <c r="V3" t="n">
+        <v>53.0</v>
       </c>
       <c r="W3" t="s">
         <v>317</v>
@@ -30273,36 +29992,36 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4">
-        <v>74</v>
-      </c>
-      <c r="D4">
-        <v>78</v>
-      </c>
-      <c r="E4">
-        <v>152</v>
-      </c>
-      <c r="F4">
-        <v>29</v>
-      </c>
-      <c r="G4">
+      <c r="C4" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.5263157894736843</v>
       </c>
-      <c r="H4">
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <v>1.1052631578947369</v>
-      </c>
-      <c r="J4">
-        <v>50</v>
+      <c r="H4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50.0</v>
       </c>
       <c r="K4" t="s">
         <v>265</v>
@@ -30313,32 +30032,32 @@
       <c r="M4" t="s">
         <v>303</v>
       </c>
-      <c r="N4">
-        <v>38</v>
-      </c>
-      <c r="O4">
-        <v>58</v>
-      </c>
-      <c r="P4">
-        <v>67</v>
-      </c>
-      <c r="Q4">
-        <v>125</v>
-      </c>
-      <c r="R4">
-        <v>14</v>
-      </c>
-      <c r="S4">
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="T4">
-        <v>23</v>
-      </c>
-      <c r="U4">
+      <c r="N4" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="T4" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.2105263157894737</v>
       </c>
-      <c r="V4">
-        <v>37</v>
+      <c r="V4" t="n">
+        <v>37.0</v>
       </c>
       <c r="W4" t="s">
         <v>318</v>
@@ -30350,36 +30069,36 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="C5">
-        <v>93</v>
-      </c>
-      <c r="D5">
-        <v>88</v>
-      </c>
-      <c r="E5">
-        <v>181</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
+      <c r="C5" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G5" t="n">
         <v>1.3157894736842106</v>
       </c>
-      <c r="H5">
-        <v>23</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.2105263157894737</v>
       </c>
-      <c r="J5">
-        <v>48</v>
+      <c r="J5" t="n">
+        <v>48.0</v>
       </c>
       <c r="K5" t="s">
         <v>266</v>
@@ -30390,32 +30109,32 @@
       <c r="M5" t="s">
         <v>304</v>
       </c>
-      <c r="N5">
-        <v>38</v>
-      </c>
-      <c r="O5">
-        <v>70</v>
-      </c>
-      <c r="P5">
-        <v>74</v>
-      </c>
-      <c r="Q5">
-        <v>144</v>
-      </c>
-      <c r="R5">
-        <v>14</v>
-      </c>
-      <c r="S5">
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="T5">
-        <v>21</v>
-      </c>
-      <c r="U5">
-        <v>1.1052631578947369</v>
-      </c>
-      <c r="V5">
-        <v>35</v>
+      <c r="N5" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="T5" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="V5" t="n">
+        <v>35.0</v>
       </c>
       <c r="W5" t="s">
         <v>319</v>
@@ -30427,36 +30146,36 @@
         <v>352</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="C6">
-        <v>74</v>
-      </c>
-      <c r="D6">
-        <v>62</v>
-      </c>
-      <c r="E6">
-        <v>136</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>0.78947368421052633</v>
-      </c>
-      <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>0.73684210526315785</v>
-      </c>
-      <c r="J6">
-        <v>29</v>
+      <c r="C6" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29.0</v>
       </c>
       <c r="K6" t="s">
         <v>267</v>
@@ -30467,32 +30186,32 @@
       <c r="M6" t="s">
         <v>305</v>
       </c>
-      <c r="N6">
-        <v>38</v>
-      </c>
-      <c r="O6">
-        <v>116</v>
-      </c>
-      <c r="P6">
-        <v>105</v>
-      </c>
-      <c r="Q6">
-        <v>221</v>
-      </c>
-      <c r="R6">
-        <v>20</v>
-      </c>
-      <c r="S6">
+      <c r="N6" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>221.0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.0526315789473684</v>
       </c>
-      <c r="T6">
-        <v>27</v>
-      </c>
-      <c r="U6">
+      <c r="T6" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.4210526315789473</v>
       </c>
-      <c r="V6">
-        <v>47</v>
+      <c r="V6" t="n">
+        <v>47.0</v>
       </c>
       <c r="W6" t="s">
         <v>320</v>
@@ -30504,36 +30223,36 @@
         <v>353</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7">
-        <v>99</v>
-      </c>
-      <c r="D7">
-        <v>90</v>
-      </c>
-      <c r="E7">
-        <v>189</v>
-      </c>
-      <c r="F7">
-        <v>27</v>
-      </c>
-      <c r="G7">
+      <c r="C7" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.4210526315789473</v>
       </c>
-      <c r="H7">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>46</v>
+      <c r="H7" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>46.0</v>
       </c>
       <c r="K7" t="s">
         <v>268</v>
@@ -30544,32 +30263,32 @@
       <c r="M7" t="s">
         <v>306</v>
       </c>
-      <c r="N7">
-        <v>38</v>
-      </c>
-      <c r="O7">
-        <v>77</v>
-      </c>
-      <c r="P7">
-        <v>68</v>
-      </c>
-      <c r="Q7">
-        <v>145</v>
-      </c>
-      <c r="R7">
-        <v>22</v>
-      </c>
-      <c r="S7">
+      <c r="N7" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.1578947368421053</v>
       </c>
-      <c r="T7">
-        <v>22</v>
-      </c>
-      <c r="U7">
+      <c r="T7" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.1578947368421053</v>
       </c>
-      <c r="V7">
-        <v>44</v>
+      <c r="V7" t="n">
+        <v>44.0</v>
       </c>
       <c r="W7" t="s">
         <v>295</v>
@@ -30581,36 +30300,36 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="C8">
-        <v>107</v>
-      </c>
-      <c r="D8">
-        <v>108</v>
-      </c>
-      <c r="E8">
-        <v>215</v>
-      </c>
-      <c r="F8">
-        <v>38</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>30</v>
-      </c>
-      <c r="I8">
+      <c r="C8" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>215.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.5789473684210527</v>
       </c>
-      <c r="J8">
-        <v>68</v>
+      <c r="J8" t="n">
+        <v>68.0</v>
       </c>
       <c r="K8" t="s">
         <v>269</v>
@@ -30621,32 +30340,32 @@
       <c r="M8" t="s">
         <v>307</v>
       </c>
-      <c r="N8">
-        <v>38</v>
-      </c>
-      <c r="O8">
-        <v>61</v>
-      </c>
-      <c r="P8">
-        <v>67</v>
-      </c>
-      <c r="Q8">
-        <v>128</v>
-      </c>
-      <c r="R8">
-        <v>15</v>
-      </c>
-      <c r="S8">
-        <v>0.78947368421052633</v>
-      </c>
-      <c r="T8">
-        <v>20</v>
-      </c>
-      <c r="U8">
+      <c r="N8" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="T8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.0526315789473684</v>
       </c>
-      <c r="V8">
-        <v>35</v>
+      <c r="V8" t="n">
+        <v>35.0</v>
       </c>
       <c r="W8" t="s">
         <v>321</v>
@@ -30658,36 +30377,36 @@
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9">
-        <v>79</v>
-      </c>
-      <c r="D9">
-        <v>67</v>
-      </c>
-      <c r="E9">
-        <v>146</v>
-      </c>
-      <c r="F9">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>0.84210526315789469</v>
-      </c>
-      <c r="H9">
-        <v>22</v>
-      </c>
-      <c r="I9">
+      <c r="C9" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="H9" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I9" t="n">
         <v>1.1578947368421053</v>
       </c>
-      <c r="J9">
-        <v>38</v>
+      <c r="J9" t="n">
+        <v>38.0</v>
       </c>
       <c r="K9" t="s">
         <v>270</v>
@@ -30698,32 +30417,32 @@
       <c r="M9" t="s">
         <v>308</v>
       </c>
-      <c r="N9">
-        <v>38</v>
-      </c>
-      <c r="O9">
-        <v>80</v>
-      </c>
-      <c r="P9">
-        <v>70</v>
-      </c>
-      <c r="Q9">
-        <v>150</v>
-      </c>
-      <c r="R9">
-        <v>21</v>
-      </c>
-      <c r="S9">
-        <v>1.1052631578947369</v>
-      </c>
-      <c r="T9">
-        <v>21</v>
-      </c>
-      <c r="U9">
-        <v>1.1052631578947369</v>
-      </c>
-      <c r="V9">
-        <v>42</v>
+      <c r="N9" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="T9" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="V9" t="n">
+        <v>42.0</v>
       </c>
       <c r="W9" t="s">
         <v>322</v>
@@ -30735,36 +30454,36 @@
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10">
-        <v>99</v>
-      </c>
-      <c r="D10">
-        <v>98</v>
-      </c>
-      <c r="E10">
-        <v>197</v>
-      </c>
-      <c r="F10">
-        <v>36</v>
-      </c>
-      <c r="G10">
-        <v>1.8947368421052631</v>
-      </c>
-      <c r="H10">
-        <v>32</v>
-      </c>
-      <c r="I10">
+      <c r="C10" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.894736842105263</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.6842105263157894</v>
       </c>
-      <c r="J10">
-        <v>68</v>
+      <c r="J10" t="n">
+        <v>68.0</v>
       </c>
       <c r="K10" t="s">
         <v>271</v>
@@ -30775,32 +30494,32 @@
       <c r="M10" t="s">
         <v>309</v>
       </c>
-      <c r="N10">
-        <v>38</v>
-      </c>
-      <c r="O10">
-        <v>78</v>
-      </c>
-      <c r="P10">
-        <v>70</v>
-      </c>
-      <c r="Q10">
-        <v>148</v>
-      </c>
-      <c r="R10">
-        <v>28</v>
-      </c>
-      <c r="S10">
+      <c r="N10" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.4736842105263157</v>
       </c>
-      <c r="T10">
-        <v>19</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>47</v>
+      <c r="T10" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>47.0</v>
       </c>
       <c r="W10" t="s">
         <v>323</v>
@@ -30812,36 +30531,36 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="C11">
-        <v>97</v>
-      </c>
-      <c r="D11">
-        <v>79</v>
-      </c>
-      <c r="E11">
-        <v>176</v>
-      </c>
-      <c r="F11">
-        <v>27</v>
-      </c>
-      <c r="G11">
+      <c r="C11" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.4210526315789473</v>
       </c>
-      <c r="H11">
-        <v>24</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.263157894736842</v>
       </c>
-      <c r="J11">
-        <v>51</v>
+      <c r="J11" t="n">
+        <v>51.0</v>
       </c>
       <c r="K11" t="s">
         <v>272</v>
@@ -30852,32 +30571,32 @@
       <c r="M11" t="s">
         <v>310</v>
       </c>
-      <c r="N11">
-        <v>38</v>
-      </c>
-      <c r="O11">
-        <v>51</v>
-      </c>
-      <c r="P11">
-        <v>70</v>
-      </c>
-      <c r="Q11">
-        <v>121</v>
-      </c>
-      <c r="R11">
-        <v>16</v>
-      </c>
-      <c r="S11">
-        <v>0.84210526315789469</v>
-      </c>
-      <c r="T11">
-        <v>17</v>
-      </c>
-      <c r="U11">
-        <v>0.89473684210526316</v>
-      </c>
-      <c r="V11">
-        <v>33</v>
+      <c r="N11" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.8421052631578947</v>
+      </c>
+      <c r="T11" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="V11" t="n">
+        <v>33.0</v>
       </c>
       <c r="W11" t="s">
         <v>324</v>
@@ -30889,36 +30608,36 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="C12">
-        <v>69</v>
-      </c>
-      <c r="D12">
-        <v>66</v>
-      </c>
-      <c r="E12">
-        <v>135</v>
-      </c>
-      <c r="F12">
-        <v>18</v>
-      </c>
-      <c r="G12">
-        <v>0.94736842105263153</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <v>0.57894736842105265</v>
-      </c>
-      <c r="J12">
-        <v>29</v>
+      <c r="C12" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="J12" t="n">
+        <v>29.0</v>
       </c>
       <c r="K12" t="s">
         <v>273</v>
@@ -30929,32 +30648,32 @@
       <c r="M12" t="s">
         <v>311</v>
       </c>
-      <c r="N12">
-        <v>38</v>
-      </c>
-      <c r="O12">
-        <v>70</v>
-      </c>
-      <c r="P12">
-        <v>82</v>
-      </c>
-      <c r="Q12">
-        <v>152</v>
-      </c>
-      <c r="R12">
-        <v>29</v>
-      </c>
-      <c r="S12">
+      <c r="N12" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.5263157894736843</v>
       </c>
-      <c r="T12">
-        <v>31</v>
-      </c>
-      <c r="U12">
+      <c r="T12" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.631578947368421</v>
       </c>
-      <c r="V12">
-        <v>60</v>
+      <c r="V12" t="n">
+        <v>60.0</v>
       </c>
       <c r="W12" t="s">
         <v>325</v>
@@ -30966,36 +30685,36 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13">
-        <v>86</v>
-      </c>
-      <c r="D13">
-        <v>73</v>
-      </c>
-      <c r="E13">
-        <v>159</v>
-      </c>
-      <c r="F13">
-        <v>26</v>
-      </c>
-      <c r="G13">
+      <c r="C13" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G13" t="n">
         <v>1.368421052631579</v>
       </c>
-      <c r="H13">
-        <v>28</v>
-      </c>
-      <c r="I13">
+      <c r="H13" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.4736842105263157</v>
       </c>
-      <c r="J13">
-        <v>54</v>
+      <c r="J13" t="n">
+        <v>54.0</v>
       </c>
       <c r="K13" t="s">
         <v>274</v>
@@ -31006,32 +30725,32 @@
       <c r="M13" t="s">
         <v>312</v>
       </c>
-      <c r="N13">
-        <v>38</v>
-      </c>
-      <c r="O13">
-        <v>66</v>
-      </c>
-      <c r="P13">
-        <v>97</v>
-      </c>
-      <c r="Q13">
-        <v>163</v>
-      </c>
-      <c r="R13">
-        <v>19</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="T13">
-        <v>40</v>
-      </c>
-      <c r="U13">
+      <c r="N13" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.1052631578947367</v>
       </c>
-      <c r="V13">
-        <v>59</v>
+      <c r="V13" t="n">
+        <v>59.0</v>
       </c>
       <c r="W13" t="s">
         <v>326</v>
@@ -31043,36 +30762,36 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="C14">
-        <v>81</v>
-      </c>
-      <c r="D14">
-        <v>61</v>
-      </c>
-      <c r="E14">
-        <v>142</v>
-      </c>
-      <c r="F14">
-        <v>27</v>
-      </c>
-      <c r="G14">
+      <c r="C14" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.4210526315789473</v>
       </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="I14">
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="J14">
-        <v>40</v>
+      <c r="H14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="J14" t="n">
+        <v>40.0</v>
       </c>
       <c r="K14" t="s">
         <v>275</v>
@@ -31083,32 +30802,32 @@
       <c r="M14" t="s">
         <v>313</v>
       </c>
-      <c r="N14">
-        <v>38</v>
-      </c>
-      <c r="O14">
-        <v>78</v>
-      </c>
-      <c r="P14">
-        <v>71</v>
-      </c>
-      <c r="Q14">
-        <v>149</v>
-      </c>
-      <c r="R14">
-        <v>19</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>20</v>
-      </c>
-      <c r="U14">
+      <c r="N14" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.0526315789473684</v>
       </c>
-      <c r="V14">
-        <v>39</v>
+      <c r="V14" t="n">
+        <v>39.0</v>
       </c>
       <c r="W14" t="s">
         <v>327</v>
@@ -31120,15 +30839,15 @@
         <v>279</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15">
-        <v>63</v>
+      <c r="C15" t="n">
+        <v>63.0</v>
       </c>
       <c r="D15" t="e">
         <v>#N/A</v>
@@ -31136,20 +30855,20 @@
       <c r="E15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F15">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="I15">
-        <v>0.63157894736842102</v>
-      </c>
-      <c r="J15">
-        <v>31</v>
+      <c r="F15" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="J15" t="n">
+        <v>31.0</v>
       </c>
       <c r="K15" t="s">
         <v>276</v>
@@ -31160,11 +30879,11 @@
       <c r="M15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N15">
-        <v>38</v>
-      </c>
-      <c r="O15">
-        <v>92</v>
+      <c r="N15" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>92.0</v>
       </c>
       <c r="P15" t="e">
         <v>#N/A</v>
@@ -31172,20 +30891,20 @@
       <c r="Q15" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R15">
-        <v>23</v>
-      </c>
-      <c r="S15">
+      <c r="R15" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.2105263157894737</v>
       </c>
-      <c r="T15">
-        <v>34</v>
-      </c>
-      <c r="U15">
+      <c r="T15" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.7894736842105263</v>
       </c>
-      <c r="V15">
-        <v>57</v>
+      <c r="V15" t="n">
+        <v>57.0</v>
       </c>
       <c r="W15" t="s">
         <v>281</v>
@@ -31197,36 +30916,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
-      <c r="C16">
-        <v>79</v>
-      </c>
-      <c r="D16">
-        <v>77</v>
-      </c>
-      <c r="E16">
-        <v>156</v>
-      </c>
-      <c r="F16">
-        <v>20</v>
-      </c>
-      <c r="G16">
+      <c r="C16" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.0526315789473684</v>
       </c>
-      <c r="H16">
-        <v>22</v>
-      </c>
-      <c r="I16">
+      <c r="H16" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.1578947368421053</v>
       </c>
-      <c r="J16">
-        <v>42</v>
+      <c r="J16" t="n">
+        <v>42.0</v>
       </c>
       <c r="K16" t="s">
         <v>277</v>
@@ -31237,32 +30956,32 @@
       <c r="M16" t="s">
         <v>284</v>
       </c>
-      <c r="N16">
-        <v>38</v>
-      </c>
-      <c r="O16">
-        <v>69</v>
-      </c>
-      <c r="P16">
-        <v>86</v>
-      </c>
-      <c r="Q16">
-        <v>155</v>
-      </c>
-      <c r="R16">
-        <v>22</v>
-      </c>
-      <c r="S16">
+      <c r="N16" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.1578947368421053</v>
       </c>
-      <c r="T16">
-        <v>23</v>
-      </c>
-      <c r="U16">
+      <c r="T16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.2105263157894737</v>
       </c>
-      <c r="V16">
-        <v>45</v>
+      <c r="V16" t="n">
+        <v>45.0</v>
       </c>
       <c r="W16" t="s">
         <v>328</v>
@@ -31274,7 +30993,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -31284,26 +31003,26 @@
       <c r="C17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="D17">
-        <v>63</v>
+      <c r="D17" t="n">
+        <v>63.0</v>
       </c>
       <c r="E17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="F17">
-        <v>26</v>
-      </c>
-      <c r="G17">
+      <c r="F17" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.368421052631579</v>
       </c>
-      <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="I17">
+      <c r="H17" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.0526315789473684</v>
       </c>
-      <c r="J17">
-        <v>46</v>
+      <c r="J17" t="n">
+        <v>46.0</v>
       </c>
       <c r="K17" t="e">
         <v>#N/A</v>
@@ -31314,32 +31033,32 @@
       <c r="M17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="N17">
-        <v>38</v>
+      <c r="N17" t="n">
+        <v>38.0</v>
       </c>
       <c r="O17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="P17">
-        <v>91</v>
+      <c r="P17" t="n">
+        <v>91.0</v>
       </c>
       <c r="Q17" t="e">
         <v>#N/A</v>
       </c>
-      <c r="R17">
-        <v>13</v>
-      </c>
-      <c r="S17">
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="T17">
-        <v>21</v>
-      </c>
-      <c r="U17">
-        <v>1.1052631578947369</v>
-      </c>
-      <c r="V17">
-        <v>34</v>
+      <c r="R17" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="T17" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.105263157894737</v>
+      </c>
+      <c r="V17" t="n">
+        <v>34.0</v>
       </c>
       <c r="W17" t="e">
         <v>#N/A</v>
@@ -31351,36 +31070,36 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18">
-        <v>70</v>
-      </c>
-      <c r="D18">
-        <v>64</v>
-      </c>
-      <c r="E18">
-        <v>134</v>
-      </c>
-      <c r="F18">
-        <v>25</v>
-      </c>
-      <c r="G18">
+      <c r="C18" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.3157894736842106</v>
       </c>
-      <c r="H18">
-        <v>19</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>44</v>
+      <c r="H18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>44.0</v>
       </c>
       <c r="K18" t="s">
         <v>278</v>
@@ -31391,32 +31110,32 @@
       <c r="M18" t="s">
         <v>289</v>
       </c>
-      <c r="N18">
-        <v>38</v>
-      </c>
-      <c r="O18">
-        <v>78</v>
-      </c>
-      <c r="P18">
-        <v>100</v>
-      </c>
-      <c r="Q18">
-        <v>178</v>
-      </c>
-      <c r="R18">
-        <v>19</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="T18">
-        <v>23</v>
-      </c>
-      <c r="U18">
+      <c r="N18" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.2105263157894737</v>
       </c>
-      <c r="V18">
-        <v>42</v>
+      <c r="V18" t="n">
+        <v>42.0</v>
       </c>
       <c r="W18" t="s">
         <v>327</v>
@@ -31428,36 +31147,36 @@
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19">
-        <v>107</v>
-      </c>
-      <c r="D19">
-        <v>94</v>
-      </c>
-      <c r="E19">
-        <v>201</v>
-      </c>
-      <c r="F19">
-        <v>28</v>
-      </c>
-      <c r="G19">
+      <c r="C19" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.4736842105263157</v>
       </c>
-      <c r="H19">
-        <v>25</v>
-      </c>
-      <c r="I19">
+      <c r="H19" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.3157894736842106</v>
       </c>
-      <c r="J19">
-        <v>53</v>
+      <c r="J19" t="n">
+        <v>53.0</v>
       </c>
       <c r="K19" t="s">
         <v>279</v>
@@ -31468,32 +31187,32 @@
       <c r="M19" t="s">
         <v>314</v>
       </c>
-      <c r="N19">
-        <v>38</v>
-      </c>
-      <c r="O19">
-        <v>61</v>
-      </c>
-      <c r="P19">
-        <v>68</v>
-      </c>
-      <c r="Q19">
-        <v>129</v>
-      </c>
-      <c r="R19">
-        <v>19</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>20</v>
-      </c>
-      <c r="U19">
+      <c r="N19" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.0526315789473684</v>
       </c>
-      <c r="V19">
-        <v>39</v>
+      <c r="V19" t="n">
+        <v>39.0</v>
       </c>
       <c r="W19" t="s">
         <v>329</v>
@@ -31505,36 +31224,36 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C20">
-        <v>82</v>
-      </c>
-      <c r="D20">
-        <v>77</v>
-      </c>
-      <c r="E20">
-        <v>159</v>
-      </c>
-      <c r="F20">
-        <v>22</v>
-      </c>
-      <c r="G20">
+      <c r="C20" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.1578947368421053</v>
       </c>
-      <c r="H20">
-        <v>26</v>
-      </c>
-      <c r="I20">
+      <c r="H20" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.368421052631579</v>
       </c>
-      <c r="J20">
-        <v>48</v>
+      <c r="J20" t="n">
+        <v>48.0</v>
       </c>
       <c r="K20" t="s">
         <v>280</v>
@@ -31545,32 +31264,32 @@
       <c r="M20" t="s">
         <v>315</v>
       </c>
-      <c r="N20">
-        <v>38</v>
-      </c>
-      <c r="O20">
-        <v>67</v>
-      </c>
-      <c r="P20">
-        <v>79</v>
-      </c>
-      <c r="Q20">
-        <v>146</v>
-      </c>
-      <c r="R20">
-        <v>24</v>
-      </c>
-      <c r="S20">
+      <c r="N20" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.263157894736842</v>
       </c>
-      <c r="T20">
-        <v>29</v>
-      </c>
-      <c r="U20">
+      <c r="T20" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.5263157894736843</v>
       </c>
-      <c r="V20">
-        <v>53</v>
+      <c r="V20" t="n">
+        <v>53.0</v>
       </c>
       <c r="W20" t="s">
         <v>330</v>
@@ -31582,36 +31301,36 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>48</v>
       </c>
-      <c r="C21">
-        <v>68</v>
-      </c>
-      <c r="D21">
-        <v>51</v>
-      </c>
-      <c r="E21">
-        <v>119</v>
-      </c>
-      <c r="F21">
-        <v>17</v>
-      </c>
-      <c r="G21">
-        <v>0.89473684210526316</v>
-      </c>
-      <c r="H21">
-        <v>13</v>
-      </c>
-      <c r="I21">
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="J21">
-        <v>30</v>
+      <c r="C21" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H21" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="J21" t="n">
+        <v>30.0</v>
       </c>
       <c r="K21" t="s">
         <v>281</v>
@@ -31622,32 +31341,32 @@
       <c r="M21" t="s">
         <v>316</v>
       </c>
-      <c r="N21">
-        <v>38</v>
-      </c>
-      <c r="O21">
-        <v>94</v>
-      </c>
-      <c r="P21">
-        <v>98</v>
-      </c>
-      <c r="Q21">
-        <v>192</v>
-      </c>
-      <c r="R21">
-        <v>35</v>
-      </c>
-      <c r="S21">
+      <c r="N21" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.8421052631578947</v>
       </c>
-      <c r="T21">
-        <v>29</v>
-      </c>
-      <c r="U21">
+      <c r="T21" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.5263157894736843</v>
       </c>
-      <c r="V21">
-        <v>64</v>
+      <c r="V21" t="n">
+        <v>64.0</v>
       </c>
       <c r="W21" t="s">
         <v>331</v>
@@ -31660,28 +31379,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
-    <col min="6" max="6" width="71.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1"/>
       <c r="B1" t="s">
         <v>363</v>
       </c>
@@ -31698,7 +31409,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -31718,7 +31429,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -31738,7 +31449,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -31758,7 +31469,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -31778,7 +31489,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -31798,7 +31509,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -31818,7 +31529,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -31838,7 +31549,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -31858,7 +31569,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -31878,7 +31589,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -31898,7 +31609,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -31918,7 +31629,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -31938,7 +31649,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -31958,7 +31669,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -31978,7 +31689,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -31998,7 +31709,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -32018,7 +31729,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -32038,7 +31749,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -32058,7 +31769,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -32078,7 +31789,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -32099,6 +31810,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Divisions/I2.xlsx
+++ b/Divisions/I2.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Totals" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7041" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6874" uniqueCount="420">
   <si>
     <t>Team</t>
   </si>
@@ -1283,447 +1282,6 @@
   </si>
   <si>
     <t>34.10%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Alessandria,D L D W D L</t>
-  </si>
-  <si>
-    <t>Ascoli,D W W W D W</t>
-  </si>
-  <si>
-    <t>Benevento,D W W W L L</t>
-  </si>
-  <si>
-    <t>Brescia,W D W W D W</t>
-  </si>
-  <si>
-    <t>Cittadella,L D L D L W</t>
-  </si>
-  <si>
-    <t>Como,L D W L L L</t>
-  </si>
-  <si>
-    <t>Cosenza,D L L W W W</t>
-  </si>
-  <si>
-    <t>Cremonese,W W D W W L</t>
-  </si>
-  <si>
-    <t>Crotone,D W D L W L</t>
-  </si>
-  <si>
-    <t>Frosinone,W W W W W L</t>
-  </si>
-  <si>
-    <t>Lecce,W D W W W W</t>
-  </si>
-  <si>
-    <t>Monza,D W W W D W</t>
-  </si>
-  <si>
-    <t>Parma,D D D W L D</t>
-  </si>
-  <si>
-    <t>Perugia,D D L D W W</t>
-  </si>
-  <si>
-    <t>Pisa,W W W D W D</t>
-  </si>
-  <si>
-    <t>Pordenone,L D D W L D</t>
-  </si>
-  <si>
-    <t>Reggina,W L W L W L</t>
-  </si>
-  <si>
-    <t>Spal,D L L D D W</t>
-  </si>
-  <si>
-    <t>Ternana,W W W L D W</t>
-  </si>
-  <si>
-    <t>Vicenza,W L W D L W</t>
-  </si>
-  <si>
-    <t>Alessandria,1 0 2 2 0 0,(5)</t>
-  </si>
-  <si>
-    <t>Ascoli,1 2 1 2 0 4,(10)</t>
-  </si>
-  <si>
-    <t>Benevento,1 3 5 1 1 1,(12)</t>
-  </si>
-  <si>
-    <t>Brescia,2 2 2 1 1 3,(11)</t>
-  </si>
-  <si>
-    <t>Cittadella,1 0 1 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Como,0 1 2 1 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Cosenza,2 1 0 1 3 1,(8)</t>
-  </si>
-  <si>
-    <t>Cremonese,2 2 1 2 3 0,(10)</t>
-  </si>
-  <si>
-    <t>Crotone,0 2 1 1 3 0,(7)</t>
-  </si>
-  <si>
-    <t>Frosinone,1 3 2 2 4 1,(13)</t>
-  </si>
-  <si>
-    <t>Lecce,3 1 1 1 2 1,(9)</t>
-  </si>
-  <si>
-    <t>Monza,1 4 1 2 1 3,(12)</t>
-  </si>
-  <si>
-    <t>Parma,1 1 0 4 0 2,(8)</t>
-  </si>
-  <si>
-    <t>Perugia,1 1 0 1 2 1,(6)</t>
-  </si>
-  <si>
-    <t>Pisa,3 3 1 0 3 1,(11)</t>
-  </si>
-  <si>
-    <t>Pordenone,0 1 1 2 1 3,(8)</t>
-  </si>
-  <si>
-    <t>Reggina,3 0 1 0 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Spal,0 1 0 2 1 3,(7)</t>
-  </si>
-  <si>
-    <t>Ternana,1 2 3 1 4 1,(12)</t>
-  </si>
-  <si>
-    <t>Vicenza,3 0 2 1 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Alessandria,1 3 2 0 0 1,(7)</t>
-  </si>
-  <si>
-    <t>Ascoli,1 0 0 0 0 1,(2)</t>
-  </si>
-  <si>
-    <t>Benevento,1 1 1 0 2 2,(7)</t>
-  </si>
-  <si>
-    <t>Brescia,1 2 0 0 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Cittadella,2 0 2 0 2 0,(6)</t>
-  </si>
-  <si>
-    <t>Como,2 1 0 2 2 2,(9)</t>
-  </si>
-  <si>
-    <t>Cosenza,2 3 2 0 1 0,(8)</t>
-  </si>
-  <si>
-    <t>Cremonese,1 1 1 1 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Crotone,0 0 1 2 1 1,(5)</t>
-  </si>
-  <si>
-    <t>Frosinone,0 0 0 1 1 2,(4)</t>
-  </si>
-  <si>
-    <t>Lecce,1 1 0 0 0 0,(2)</t>
-  </si>
-  <si>
-    <t>Monza,1 0 0 0 1 0,(2)</t>
-  </si>
-  <si>
-    <t>Parma,1 1 0 3 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Perugia,1 1 1 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Pisa,2 0 0 0 1 1,(4)</t>
-  </si>
-  <si>
-    <t>Pordenone,1 1 1 0 4 3,(10)</t>
-  </si>
-  <si>
-    <t>Reggina,1 1 0 3 0 4,(9)</t>
-  </si>
-  <si>
-    <t>Spal,0 2 2 2 1 0,(7)</t>
-  </si>
-  <si>
-    <t>Ternana,0 0 0 4 4 0,(8)</t>
-  </si>
-  <si>
-    <t>Vicenza,1 1 0 1 2 1,(6)</t>
-  </si>
-  <si>
-    <t>Alessandria,2 3 4 2 0 1,(12)</t>
-  </si>
-  <si>
-    <t>Ascoli,2 2 1 2 0 5,(12)</t>
-  </si>
-  <si>
-    <t>Benevento,2 4 6 1 3 3,(19)</t>
-  </si>
-  <si>
-    <t>Brescia,3 4 2 1 2 3,(15)</t>
-  </si>
-  <si>
-    <t>Cittadella,3 0 3 0 3 1,(10)</t>
-  </si>
-  <si>
-    <t>Como,2 2 2 3 2 3,(14)</t>
-  </si>
-  <si>
-    <t>Cosenza,4 4 2 1 4 1,(16)</t>
-  </si>
-  <si>
-    <t>Cremonese,3 3 2 3 4 1,(16)</t>
-  </si>
-  <si>
-    <t>Crotone,0 2 2 3 4 1,(12)</t>
-  </si>
-  <si>
-    <t>Frosinone,1 3 2 3 5 3,(17)</t>
-  </si>
-  <si>
-    <t>Lecce,4 2 1 1 2 1,(11)</t>
-  </si>
-  <si>
-    <t>Monza,2 4 1 2 2 3,(14)</t>
-  </si>
-  <si>
-    <t>Parma,2 2 0 7 1 4,(16)</t>
-  </si>
-  <si>
-    <t>Perugia,2 2 1 2 3 1,(11)</t>
-  </si>
-  <si>
-    <t>Pisa,5 3 1 0 4 2,(15)</t>
-  </si>
-  <si>
-    <t>Pordenone,1 2 2 2 5 6,(18)</t>
-  </si>
-  <si>
-    <t>Reggina,4 1 1 3 1 5,(15)</t>
-  </si>
-  <si>
-    <t>Spal,0 3 2 4 2 3,(14)</t>
-  </si>
-  <si>
-    <t>Ternana,1 2 3 5 8 1,(20)</t>
-  </si>
-  <si>
-    <t>Vicenza,4 1 2 2 3 3,(15)</t>
-  </si>
-  <si>
-    <t>Alessandria,1-1 0-3 2-2 2-0 0-0 0-1</t>
-  </si>
-  <si>
-    <t>Ascoli,1-1 2-0 1-0 2-0 0-0 4-1</t>
-  </si>
-  <si>
-    <t>Benevento,1-1 3-1 5-1 1-0 1-2 1-2</t>
-  </si>
-  <si>
-    <t>Brescia,2-1 2-2 2-0 1-0 1-1 3-0</t>
-  </si>
-  <si>
-    <t>Cittadella,1-2 0-0 1-2 0-0 1-2 1-0</t>
-  </si>
-  <si>
-    <t>Como,0-2 1-1 2-0 1-2 0-2 1-2</t>
-  </si>
-  <si>
-    <t>Cosenza,2-2 1-3 0-2 1-0 3-1 1-0</t>
-  </si>
-  <si>
-    <t>Cremonese,2-1 2-1 1-1 2-1 3-1 0-1</t>
-  </si>
-  <si>
-    <t>Crotone,0-0 2-0 1-1 1-2 3-1 0-1</t>
-  </si>
-  <si>
-    <t>Frosinone,1-0 3-0 2-0 2-1 4-1 1-2</t>
-  </si>
-  <si>
-    <t>Lecce,3-1 1-1 1-0 1-0 2-0 1-0</t>
-  </si>
-  <si>
-    <t>Monza,1-1 4-0 1-0 2-0 1-1 3-0</t>
-  </si>
-  <si>
-    <t>Parma,1-1 1-1 0-0 4-3 0-1 2-2</t>
-  </si>
-  <si>
-    <t>Perugia,1-1 1-1 0-1 1-1 2-1 1-0</t>
-  </si>
-  <si>
-    <t>Pisa,3-2 3-0 1-0 0-0 3-1 1-1</t>
-  </si>
-  <si>
-    <t>Pordenone,0-1 1-1 1-1 2-0 1-4 3-3</t>
-  </si>
-  <si>
-    <t>Reggina,3-1 0-1 1-0 0-3 1-0 1-4</t>
-  </si>
-  <si>
-    <t>Spal,0-0 1-2 0-2 2-2 1-1 3-0</t>
-  </si>
-  <si>
-    <t>Ternana,1-0 2-0 3-0 1-4 4-4 1-0</t>
-  </si>
-  <si>
-    <t>Vicenza,3-1 0-1 2-0 1-1 1-2 2-1</t>
-  </si>
-  <si>
-    <t>Alessandria,0 -3 0 2 0 -1,(-2)</t>
-  </si>
-  <si>
-    <t>Ascoli,0 2 1 2 0 3,(8)</t>
-  </si>
-  <si>
-    <t>Benevento,0 2 4 1 -1 -1,(5)</t>
-  </si>
-  <si>
-    <t>Brescia,1 0 2 1 0 3,(7)</t>
-  </si>
-  <si>
-    <t>Cittadella,-1 0 -1 0 -1 1,(-2)</t>
-  </si>
-  <si>
-    <t>Como,-2 0 2 -1 -2 -1,(-4)</t>
-  </si>
-  <si>
-    <t>Cosenza,0 -2 -2 1 2 1,(0)</t>
-  </si>
-  <si>
-    <t>Cremonese,1 1 0 1 2 -1,(4)</t>
-  </si>
-  <si>
-    <t>Crotone,0 2 0 -1 2 -1,(2)</t>
-  </si>
-  <si>
-    <t>Frosinone,1 3 2 1 3 -1,(9)</t>
-  </si>
-  <si>
-    <t>Lecce,2 0 1 1 2 1,(7)</t>
-  </si>
-  <si>
-    <t>Monza,0 4 1 2 0 3,(10)</t>
-  </si>
-  <si>
-    <t>Parma,0 0 0 1 -1 0,(0)</t>
-  </si>
-  <si>
-    <t>Perugia,0 0 -1 0 1 1,(1)</t>
-  </si>
-  <si>
-    <t>Pisa,1 3 1 0 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Pordenone,-1 0 0 2 -3 0,(-2)</t>
-  </si>
-  <si>
-    <t>Reggina,2 -1 1 -3 1 -3,(-3)</t>
-  </si>
-  <si>
-    <t>Spal,0 -1 -2 0 0 3,(0)</t>
-  </si>
-  <si>
-    <t>Ternana,1 2 3 -3 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Vicenza,2 -1 2 0 -1 1,(3)</t>
-  </si>
-  <si>
-    <t>Alessandria,Como(14) Monza(3) Spal(15) Pordenone(20) Reggina(13) Vicenza(18)</t>
-  </si>
-  <si>
-    <t>Ascoli,Frosinone(8) Pisa(4) Pordenone(20) Reggina(13) Cittadella(11) Ternana(10)</t>
-  </si>
-  <si>
-    <t>Benevento,Cremonese(2) Crotone(19) Pisa(4) Vicenza(18) Ternana(10) Spal(15)</t>
-  </si>
-  <si>
-    <t>Brescia,Perugia(9) Benevento(7) Vicenza(18) Parma(12) Spal(15) Reggina(13)</t>
-  </si>
-  <si>
-    <t>Cittadella,Monza(3) Reggina(13) Ternana(10) Perugia(9) Alessandria(17) Brescia(5)</t>
-  </si>
-  <si>
-    <t>Como,Spal(15) Ternana(10) Monza(3) Cittadella(11) Vicenza(18) Cremonese(2)</t>
-  </si>
-  <si>
-    <t>Cosenza,Lecce(1) Parma(12) Monza(3) Benevento(7) Pordenone(20) Cittadella(11)</t>
-  </si>
-  <si>
-    <t>Cremonese,Brescia(5) Pordenone(20) Reggina(13) Alessandria(17) Cosenza(16) Ascoli(6)</t>
-  </si>
-  <si>
-    <t>Crotone,Alessandria(17) Frosinone(8) Perugia(9) Ternana(10) Cremonese(2) Parma(12)</t>
-  </si>
-  <si>
-    <t>Frosinone,Cosenza(16) Alessandria(17) Benevento(7) Cremonese(2) Monza(3) Pisa(4)</t>
-  </si>
-  <si>
-    <t>Lecce,Ascoli(6) Brescia(5) Frosinone(8) Spal(15) Pisa(4) Pordenone(20)</t>
-  </si>
-  <si>
-    <t>Monza,Parma(12) Vicenza(18) Crotone(19) Ascoli(6) Brescia(5) Benevento(7)</t>
-  </si>
-  <si>
-    <t>Parma,Reggina(13) Cittadella(11) Lecce(1) Como(14) Ascoli(6) Alessandria(17)</t>
-  </si>
-  <si>
-    <t>Perugia,Lecce(1) Spal(15) Como(14) Pisa(4) Parma(12) Monza(3)</t>
-  </si>
-  <si>
-    <t>Pisa,Crotone(19) Cremonese(2) Cittadella(11) Brescia(5) Como(14) Cosenza(16)</t>
-  </si>
-  <si>
-    <t>Pordenone,Pisa(4) Como(14) Brescia(5) Frosinone(8) Benevento(7) Crotone(19)</t>
-  </si>
-  <si>
-    <t>Reggina,Vicenza(18) Perugia(9) Cosenza(16) Benevento(7) Lecce(1) Como(14)</t>
-  </si>
-  <si>
-    <t>Spal,Cittadella(11) Ascoli(6) Cremonese(2) Cosenza(16) Crotone(19) Frosinone(8)</t>
-  </si>
-  <si>
-    <t>Ternana,Pordenone(20) Cosenza(16) Alessandria(17) Lecce(1) Frosinone(8) Perugia(9)</t>
-  </si>
-  <si>
-    <t>Vicenza,Ternana(10) Parma(12) Ascoli(6) Crotone(19) Perugia(9) Lecce(1)</t>
   </si>
 </sst>
 </file>
@@ -5075,563 +4633,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E2" t="s">
-        <v>487</v>
-      </c>
-      <c r="F2" t="s">
-        <v>507</v>
-      </c>
-      <c r="G2" t="s">
-        <v>527</v>
-      </c>
-      <c r="H2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E3" t="s">
-        <v>488</v>
-      </c>
-      <c r="F3" t="s">
-        <v>508</v>
-      </c>
-      <c r="G3" t="s">
-        <v>528</v>
-      </c>
-      <c r="H3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" t="s">
-        <v>469</v>
-      </c>
-      <c r="E4" t="s">
-        <v>489</v>
-      </c>
-      <c r="F4" t="s">
-        <v>509</v>
-      </c>
-      <c r="G4" t="s">
-        <v>529</v>
-      </c>
-      <c r="H4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>430</v>
-      </c>
-      <c r="C5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D5" t="s">
-        <v>470</v>
-      </c>
-      <c r="E5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F5" t="s">
-        <v>510</v>
-      </c>
-      <c r="G5" t="s">
-        <v>530</v>
-      </c>
-      <c r="H5" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D6" t="s">
-        <v>471</v>
-      </c>
-      <c r="E6" t="s">
-        <v>491</v>
-      </c>
-      <c r="F6" t="s">
-        <v>511</v>
-      </c>
-      <c r="G6" t="s">
-        <v>531</v>
-      </c>
-      <c r="H6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>432</v>
-      </c>
-      <c r="C7" t="s">
-        <v>452</v>
-      </c>
-      <c r="D7" t="s">
-        <v>472</v>
-      </c>
-      <c r="E7" t="s">
-        <v>492</v>
-      </c>
-      <c r="F7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G7" t="s">
-        <v>532</v>
-      </c>
-      <c r="H7" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C8" t="s">
-        <v>453</v>
-      </c>
-      <c r="D8" t="s">
-        <v>473</v>
-      </c>
-      <c r="E8" t="s">
-        <v>493</v>
-      </c>
-      <c r="F8" t="s">
-        <v>513</v>
-      </c>
-      <c r="G8" t="s">
-        <v>533</v>
-      </c>
-      <c r="H8" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C9" t="s">
-        <v>454</v>
-      </c>
-      <c r="D9" t="s">
-        <v>474</v>
-      </c>
-      <c r="E9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F9" t="s">
-        <v>514</v>
-      </c>
-      <c r="G9" t="s">
-        <v>534</v>
-      </c>
-      <c r="H9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>435</v>
-      </c>
-      <c r="C10" t="s">
-        <v>455</v>
-      </c>
-      <c r="D10" t="s">
-        <v>475</v>
-      </c>
-      <c r="E10" t="s">
-        <v>495</v>
-      </c>
-      <c r="F10" t="s">
-        <v>515</v>
-      </c>
-      <c r="G10" t="s">
-        <v>535</v>
-      </c>
-      <c r="H10" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>436</v>
-      </c>
-      <c r="C11" t="s">
-        <v>456</v>
-      </c>
-      <c r="D11" t="s">
-        <v>476</v>
-      </c>
-      <c r="E11" t="s">
-        <v>496</v>
-      </c>
-      <c r="F11" t="s">
-        <v>516</v>
-      </c>
-      <c r="G11" t="s">
-        <v>536</v>
-      </c>
-      <c r="H11" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>437</v>
-      </c>
-      <c r="C12" t="s">
-        <v>457</v>
-      </c>
-      <c r="D12" t="s">
-        <v>477</v>
-      </c>
-      <c r="E12" t="s">
-        <v>497</v>
-      </c>
-      <c r="F12" t="s">
-        <v>517</v>
-      </c>
-      <c r="G12" t="s">
-        <v>537</v>
-      </c>
-      <c r="H12" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>438</v>
-      </c>
-      <c r="C13" t="s">
-        <v>458</v>
-      </c>
-      <c r="D13" t="s">
-        <v>478</v>
-      </c>
-      <c r="E13" t="s">
-        <v>498</v>
-      </c>
-      <c r="F13" t="s">
-        <v>518</v>
-      </c>
-      <c r="G13" t="s">
-        <v>538</v>
-      </c>
-      <c r="H13" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>439</v>
-      </c>
-      <c r="C14" t="s">
-        <v>459</v>
-      </c>
-      <c r="D14" t="s">
-        <v>479</v>
-      </c>
-      <c r="E14" t="s">
-        <v>499</v>
-      </c>
-      <c r="F14" t="s">
-        <v>519</v>
-      </c>
-      <c r="G14" t="s">
-        <v>539</v>
-      </c>
-      <c r="H14" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>440</v>
-      </c>
-      <c r="C15" t="s">
-        <v>460</v>
-      </c>
-      <c r="D15" t="s">
-        <v>480</v>
-      </c>
-      <c r="E15" t="s">
-        <v>500</v>
-      </c>
-      <c r="F15" t="s">
-        <v>520</v>
-      </c>
-      <c r="G15" t="s">
-        <v>540</v>
-      </c>
-      <c r="H15" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>441</v>
-      </c>
-      <c r="C16" t="s">
-        <v>461</v>
-      </c>
-      <c r="D16" t="s">
-        <v>481</v>
-      </c>
-      <c r="E16" t="s">
-        <v>501</v>
-      </c>
-      <c r="F16" t="s">
-        <v>521</v>
-      </c>
-      <c r="G16" t="s">
-        <v>541</v>
-      </c>
-      <c r="H16" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>442</v>
-      </c>
-      <c r="C17" t="s">
-        <v>462</v>
-      </c>
-      <c r="D17" t="s">
-        <v>482</v>
-      </c>
-      <c r="E17" t="s">
-        <v>502</v>
-      </c>
-      <c r="F17" t="s">
-        <v>522</v>
-      </c>
-      <c r="G17" t="s">
-        <v>542</v>
-      </c>
-      <c r="H17" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>443</v>
-      </c>
-      <c r="C18" t="s">
-        <v>463</v>
-      </c>
-      <c r="D18" t="s">
-        <v>483</v>
-      </c>
-      <c r="E18" t="s">
-        <v>503</v>
-      </c>
-      <c r="F18" t="s">
-        <v>523</v>
-      </c>
-      <c r="G18" t="s">
-        <v>543</v>
-      </c>
-      <c r="H18" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>444</v>
-      </c>
-      <c r="C19" t="s">
-        <v>464</v>
-      </c>
-      <c r="D19" t="s">
-        <v>484</v>
-      </c>
-      <c r="E19" t="s">
-        <v>504</v>
-      </c>
-      <c r="F19" t="s">
-        <v>524</v>
-      </c>
-      <c r="G19" t="s">
-        <v>544</v>
-      </c>
-      <c r="H19" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>445</v>
-      </c>
-      <c r="C20" t="s">
-        <v>465</v>
-      </c>
-      <c r="D20" t="s">
-        <v>485</v>
-      </c>
-      <c r="E20" t="s">
-        <v>505</v>
-      </c>
-      <c r="F20" t="s">
-        <v>525</v>
-      </c>
-      <c r="G20" t="s">
-        <v>545</v>
-      </c>
-      <c r="H20" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>446</v>
-      </c>
-      <c r="C21" t="s">
-        <v>466</v>
-      </c>
-      <c r="D21" t="s">
-        <v>486</v>
-      </c>
-      <c r="E21" t="s">
-        <v>506</v>
-      </c>
-      <c r="F21" t="s">
-        <v>526</v>
-      </c>
-      <c r="G21" t="s">
-        <v>546</v>
-      </c>
-      <c r="H21" t="s">
-        <v>566</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
